--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://europro365-my.sharepoint.com/personal/bbiring_sharkninja_com/Documents/Python - CostWalk/CostWalkPythonProject/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ElectricalBomAnalyser\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{5B59A0DE-2980-4BC7-9800-86D273F60FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A93F7D6F-5BDC-418B-9CA5-7DC0A68A9273}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621701B-3E11-4667-A555-7309A7E53DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15150" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{CD613DC0-3E3F-45D7-9A81-B6EDC2BEC512}"/>
+    <workbookView xWindow="-15150" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CD613DC0-3E3F-45D7-9A81-B6EDC2BEC512}"/>
   </bookViews>
   <sheets>
     <sheet name="Need" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Source</t>
   </si>
@@ -59,9 +59,6 @@
     <t>The application shall read data from the costed bill of material excel data</t>
   </si>
   <si>
-    <t>As the user, I want to analyse the product cost by grouping components by feature</t>
-  </si>
-  <si>
     <t>As the user, I want to compare the product featue cost change from one build to another</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Read excel CBOM</t>
-  </si>
-  <si>
     <t>Feature cost</t>
   </si>
   <si>
@@ -107,14 +101,124 @@
     <t>As the user, I want to plot feature cost change from one build to another</t>
   </si>
   <si>
-    <t>As the user, I want to use the costed bill of material to analyse product cost</t>
+    <t>As the user, I want to use the costed bill of material to analyse electrical cost</t>
+  </si>
+  <si>
+    <t>Excel CBOM</t>
+  </si>
+  <si>
+    <t>As the user, I want to analyse the electrical product cost by grouping components by feature</t>
+  </si>
+  <si>
+    <t>Failure Mode</t>
+  </si>
+  <si>
+    <t>Failure Effect</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Detection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 = None
+1 = Absolute</t>
+    </r>
+  </si>
+  <si>
+    <t>RPN</t>
+  </si>
+  <si>
+    <t>New RPN</t>
+  </si>
+  <si>
+    <t>Failure Cause</t>
+  </si>
+  <si>
+    <t>Current Control</t>
+  </si>
+  <si>
+    <t>Recommended Detection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Severity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 = Catastrophic
+1 = insignificant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Occurrence
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 = inevitable
+1 = unlikely</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New Detection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 = None
+1 = Absolute</t>
+    </r>
+  </si>
+  <si>
+    <t>user dissatisfaction</t>
+  </si>
+  <si>
+    <t>failed to analyze electrical cost</t>
+  </si>
+  <si>
+    <t>file format not recognized by the application</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>The application shall accept excell file format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +241,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -187,6 +298,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAC9AAD-44E6-4961-9956-B41DD506D942}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -521,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -532,57 +655,57 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -593,14 +716,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA97F52-1176-4A3B-A8AE-B9C95F6F82D0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="31" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="31" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="31" style="10" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="31" style="10" customWidth="1"/>
+    <col min="11" max="12" width="14.33203125" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="str">
+        <f>Need!C2</f>
+        <v>As the user, I want to use the costed bill of material to analyse electrical cost</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="9">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9">
+        <f>D2*F2*H2</f>
+        <v>1000</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9">
+        <f>D2*F2*K2</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -634,7 +848,7 @@
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -646,7 +860,7 @@
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +898,7 @@
   <sheetData>
     <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +938,7 @@
   <sheetData>
     <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ElectricalBomAnalyser\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621701B-3E11-4667-A555-7309A7E53DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E08BA-7E09-4E2F-A2F3-4F6962894EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15150" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CD613DC0-3E3F-45D7-9A81-B6EDC2BEC512}"/>
+    <workbookView xWindow="13650" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CD613DC0-3E3F-45D7-9A81-B6EDC2BEC512}"/>
   </bookViews>
   <sheets>
-    <sheet name="Need" sheetId="1" r:id="rId1"/>
-    <sheet name="nFMEA" sheetId="5" r:id="rId2"/>
-    <sheet name="Requirement" sheetId="2" r:id="rId3"/>
-    <sheet name="rFMEA" sheetId="6" r:id="rId4"/>
-    <sheet name="Design" sheetId="3" r:id="rId5"/>
-    <sheet name="dFMEA" sheetId="7" r:id="rId6"/>
-    <sheet name="Unit" sheetId="4" r:id="rId7"/>
+    <sheet name="Lookup" sheetId="8" r:id="rId1"/>
+    <sheet name="UserNeeds" sheetId="1" r:id="rId2"/>
+    <sheet name="NeedsFMEA" sheetId="5" r:id="rId3"/>
+    <sheet name="ApplicationReq" sheetId="2" r:id="rId4"/>
+    <sheet name="ApplicationFMEA" sheetId="6" r:id="rId5"/>
+    <sheet name="ModuleReq" sheetId="3" r:id="rId6"/>
+    <sheet name="ModuleFMEA" sheetId="7" r:id="rId7"/>
+    <sheet name="UnitTest" sheetId="4" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ApplicationFMEA!$A$1:$P$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UserNeeds!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,41 +47,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Need</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t>The application shall read data from the costed bill of material excel data</t>
-  </si>
-  <si>
-    <t>As the user, I want to compare the product featue cost change from one build to another</t>
-  </si>
-  <si>
-    <t>N001</t>
-  </si>
-  <si>
-    <t>N002</t>
-  </si>
-  <si>
-    <t>N003</t>
-  </si>
-  <si>
-    <t>N004</t>
-  </si>
-  <si>
-    <t>R001</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -89,9 +67,6 @@
     <t>Waterfall plot</t>
   </si>
   <si>
-    <t>N005</t>
-  </si>
-  <si>
     <t>Reason for change</t>
   </si>
   <si>
@@ -101,19 +76,116 @@
     <t>As the user, I want to plot feature cost change from one build to another</t>
   </si>
   <si>
-    <t>As the user, I want to use the costed bill of material to analyse electrical cost</t>
-  </si>
-  <si>
     <t>Excel CBOM</t>
   </si>
   <si>
-    <t>As the user, I want to analyse the electrical product cost by grouping components by feature</t>
-  </si>
-  <si>
     <t>Failure Mode</t>
   </si>
   <si>
     <t>Failure Effect</t>
+  </si>
+  <si>
+    <t>RPN</t>
+  </si>
+  <si>
+    <t>Failure Cause</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Rational</t>
+  </si>
+  <si>
+    <t>User need</t>
+  </si>
+  <si>
+    <t>UN001</t>
+  </si>
+  <si>
+    <t>Design Requirement</t>
+  </si>
+  <si>
+    <t>Unit Requirement</t>
+  </si>
+  <si>
+    <t>Souce ID</t>
+  </si>
+  <si>
+    <t>Output file name</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>dB Analysis</t>
+  </si>
+  <si>
+    <t>Application Requirement</t>
+  </si>
+  <si>
+    <t>AR001</t>
+  </si>
+  <si>
+    <t>AR002</t>
+  </si>
+  <si>
+    <t>The user will need to manually rename the output file based on the data contained inside the file</t>
+  </si>
+  <si>
+    <t>Source 
+text</t>
+  </si>
+  <si>
+    <t>Control
+ID</t>
+  </si>
+  <si>
+    <t>Control
+Text</t>
+  </si>
+  <si>
+    <t>As the user, I want to use the costed bill of material to analyze electrical cost</t>
+  </si>
+  <si>
+    <t>As the user, I want to analyze the electrical product cost by grouping components by feature</t>
+  </si>
+  <si>
+    <t>As the user, I want to compare the product feature cost change from one build to another</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Severity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 =  Catastrophic
+1 - Insignificant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Occurrence
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 = inevitable
+1 = unlikely</t>
+    </r>
   </si>
   <si>
     <r>
@@ -122,7 +194,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -133,62 +205,238 @@
     </r>
   </si>
   <si>
-    <t>RPN</t>
-  </si>
-  <si>
-    <t>New RPN</t>
-  </si>
-  <si>
-    <t>Failure Cause</t>
-  </si>
-  <si>
-    <t>Current Control</t>
-  </si>
-  <si>
-    <t>Recommended Detection</t>
+    <t>File names of CBOMs generated by the supplier contain the timestamp</t>
+  </si>
+  <si>
+    <t>Reference = Slide 20 of database upload process</t>
+  </si>
+  <si>
+    <t>File name SKU</t>
+  </si>
+  <si>
+    <t>File name factory</t>
+  </si>
+  <si>
+    <t>File name PCBA name</t>
+  </si>
+  <si>
+    <t>SKU information is contained in the BOM file</t>
+  </si>
+  <si>
+    <t>The list of SKU to factory mapping is maintained on the network drive.</t>
+  </si>
+  <si>
+    <t>PCBA name is contained in the file BOM file</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Loss of primary function</t>
+  </si>
+  <si>
+    <t>Loss of secondary function</t>
+  </si>
+  <si>
+    <t>Sevirity</t>
+  </si>
+  <si>
+    <t>The file name contains incorrect information</t>
+  </si>
+  <si>
+    <t>The file name is incorrect</t>
+  </si>
+  <si>
+    <t>Inconvenience</t>
+  </si>
+  <si>
+    <t>The file name is not in the correct format</t>
+  </si>
+  <si>
+    <t>Detection</t>
+  </si>
+  <si>
+    <t>Manual test</t>
+  </si>
+  <si>
+    <t>Software unit test</t>
+  </si>
+  <si>
+    <t>The user will not be able to identify the file by name. They will need to open the file or view it's properties to determine the data contained inside the file</t>
+  </si>
+  <si>
+    <t>The file name has the incorrect time stamp</t>
+  </si>
+  <si>
+    <t>The file name has an incorrect time stamp format</t>
+  </si>
+  <si>
+    <t>The file name has the incorrect SKU</t>
+  </si>
+  <si>
+    <t>The file name has the incorrect factory name</t>
+  </si>
+  <si>
+    <t>The file name has the incorrect PCBA name</t>
+  </si>
+  <si>
+    <t>Occurance</t>
+  </si>
+  <si>
+    <t>Human error</t>
+  </si>
+  <si>
+    <t>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</t>
+  </si>
+  <si>
+    <t>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</t>
+  </si>
+  <si>
+    <t>The user will not be able to identify the file by name.</t>
+  </si>
+  <si>
+    <t>The file name has the incorrect company part number</t>
+  </si>
+  <si>
+    <t>The file name has the incorrect company part number revision</t>
+  </si>
+  <si>
+    <t>File name P/N</t>
+  </si>
+  <si>
+    <t>File name P/N rev</t>
+  </si>
+  <si>
+    <t>The input file does not contain the part number information</t>
+  </si>
+  <si>
+    <t>As the user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</t>
+  </si>
+  <si>
+    <t>In order to search the file I need via the file name.</t>
+  </si>
+  <si>
+    <t>The name of the output file generated by the application does not contain the information needed to identify the type of data contained in the file</t>
+  </si>
+  <si>
+    <t>The file name format is not available</t>
+  </si>
+  <si>
+    <t>File name CBOM output file</t>
+  </si>
+  <si>
+    <t>File name EBOM output file</t>
+  </si>
+  <si>
+    <t>AR003</t>
+  </si>
+  <si>
+    <t>AR004</t>
+  </si>
+  <si>
+    <t>AR005</t>
+  </si>
+  <si>
+    <t>AR006</t>
+  </si>
+  <si>
+    <t>AR007</t>
+  </si>
+  <si>
+    <t>AR008</t>
+  </si>
+  <si>
+    <t>AR009</t>
+  </si>
+  <si>
+    <t>When generating the output file name, the application shall use the timestamp contained in the input file name</t>
+  </si>
+  <si>
+    <t>When generating the output file name, the application shall use the timestamp format MMDDYYYY. Where MM is two digit month, DD is two digit month and YYYY is the four digit year</t>
+  </si>
+  <si>
+    <t>File name timestamp format</t>
+  </si>
+  <si>
+    <t>File name timestamp value</t>
+  </si>
+  <si>
+    <t>When generating the output file name, the application shall use the factory name provided in an external text document that contains the list of SKU to factory mapping.</t>
+  </si>
+  <si>
+    <t>When generating the output file name, the application shall use the PCBA name provided inside the input file data</t>
+  </si>
+  <si>
+    <t>When generating the output file name, the application shall use the P/N entered by the user</t>
+  </si>
+  <si>
+    <t>When generating the output file name, the application shall use the P/N revision entered by the user</t>
+  </si>
+  <si>
+    <t>When generating the output file name, the application shall use the SKU provided in the input file data</t>
+  </si>
+  <si>
+    <t>nF001</t>
+  </si>
+  <si>
+    <t>nF002</t>
+  </si>
+  <si>
+    <t>aF001</t>
+  </si>
+  <si>
+    <t>aF002</t>
+  </si>
+  <si>
+    <t>aF003</t>
+  </si>
+  <si>
+    <t>aF004</t>
+  </si>
+  <si>
+    <t>aF005</t>
+  </si>
+  <si>
+    <t>aF006</t>
+  </si>
+  <si>
+    <t>aF007</t>
+  </si>
+  <si>
+    <t>aF008</t>
+  </si>
+  <si>
+    <t>aF009</t>
+  </si>
+  <si>
+    <t>aF010</t>
+  </si>
+  <si>
+    <t>aF011</t>
+  </si>
+  <si>
+    <t>aF012</t>
+  </si>
+  <si>
+    <t>mF001</t>
+  </si>
+  <si>
+    <t>Action
+ID</t>
+  </si>
+  <si>
+    <t>Action
+Text</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Severity
+      <t xml:space="preserve">Detection
+w/ action
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10 = Catastrophic
-1 = insignificant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Occurrence
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10 = inevitable
-1 = unlikely</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">New Detection
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -199,26 +447,18 @@
     </r>
   </si>
   <si>
-    <t>user dissatisfaction</t>
-  </si>
-  <si>
-    <t>failed to analyze electrical cost</t>
-  </si>
-  <si>
-    <t>file format not recognized by the application</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>The application shall accept excell file format</t>
+    <t>RPN 
+w/ action</t>
+  </si>
+  <si>
+    <t>UT001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,20 +473,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -279,37 +526,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,88 +853,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAC9AAD-44E6-4961-9956-B41DD506D942}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FA271-0A72-48D9-AB8D-3FFFAD7DD9C0}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A14" sqref="A11:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="77.77734375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAC9AAD-44E6-4961-9956-B41DD506D942}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="66.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{CDAC9AAD-44E6-4961-9956-B41DD506D942}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA97F52-1176-4A3B-A8AE-B9C95F6F82D0}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="26.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="54.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>UserNeeds!C2</f>
+        <v>As the user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <f>F2*H2*K2</f>
+        <v>500</v>
+      </c>
+      <c r="M2" s="3" t="str">
+        <f>ApplicationReq!A2</f>
+        <v>AR001</v>
+      </c>
+      <c r="N2" s="3" t="str">
+        <f>ApplicationReq!C2</f>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="O2" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="P2" s="3">
+        <f>F2*H2*O2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f>UserNeeds!C2</f>
+        <v>As the user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <f>F3*H3*K3</f>
+        <v>500</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <f>ApplicationReq!A3</f>
+        <v>AR002</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f>ApplicationReq!C3</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <f>F3*H3*O3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC926B3F-45E1-4A07-86DE-FEDC18CC146B}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="66.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
+    <row r="2" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>UserNeeds!A2</f>
+        <v>UN001</v>
       </c>
     </row>
   </sheetData>
@@ -714,231 +1459,857 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA97F52-1176-4A3B-A8AE-B9C95F6F82D0}">
-  <dimension ref="A1:L2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE665222-67F2-4612-AE0E-AB00FDB00E4B}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="31" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="31" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="31" style="10" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="31" style="10" customWidth="1"/>
-    <col min="11" max="12" width="14.33203125" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="6.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="26.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>ApplicationReq!A2</f>
+        <v>AR001</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>ApplicationReq!C2</f>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L9" si="0">F2*H2*K2</f>
+        <v>500</v>
+      </c>
+      <c r="M2" s="3" t="str">
+        <f>UnitTest!A2</f>
+        <v>UT001</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <f>F2*H2*O2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>ApplicationReq!A2</f>
+        <v>AR001</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f>ApplicationReq!C2</f>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>ApplicationReq!A4</f>
+        <v>AR003</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M3" s="3">
+        <f>ModuleReq!A2</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f>ModuleReq!C2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <f>F3*H3*O3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>B2</f>
+        <v>AR001</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>C2</f>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4">
+        <f>F2</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M4" s="3">
+        <f>ModuleReq!A3</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f>ModuleReq!C3</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P7" si="1">F4*H4*O4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>B4</f>
+        <v>AR001</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:F7" si="2">C4</f>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>The user will not be able to identify the file by name.</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M5" s="3">
+        <f>ModuleReq!A4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f>ModuleReq!C4</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>B5</f>
+        <v>AR001</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>The user will not be able to identify the file by name.</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M6" s="3">
+        <f>ModuleReq!A5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <f>ModuleReq!C5</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>B6</f>
+        <v>AR001</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>The user will not be able to identify the file by name.</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M7" s="3">
+        <f>ModuleReq!A6</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f>ModuleReq!C6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>ApplicationReq!A3</f>
+        <v>AR002</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>ApplicationReq!C3</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>ApplicationReq!A3</f>
+        <v>AR002</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f>ApplicationReq!C3</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M9" s="3">
+        <f>ModuleReq!A4</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f>ModuleReq!C4</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" ref="P9:P10" si="3">F9*H9*O9</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>ApplicationReq!A3</f>
+        <v>AR002</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f>ApplicationReq!C3</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3">
+        <f>ModuleReq!A5</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f>ModuleReq!C5</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>ApplicationReq!A3</f>
+        <v>AR002</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>ApplicationReq!C3</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3">
+        <f>F11*H11*K11</f>
+        <v>500</v>
+      </c>
+      <c r="M11" s="3">
+        <f>ModuleReq!A6</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f>ModuleReq!C6</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>ApplicationReq!A3</f>
+        <v>AR002</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>ApplicationReq!C3</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3">
+        <f>F12*H12*K12</f>
+        <v>500</v>
+      </c>
+      <c r="M12" s="3">
+        <f>ModuleReq!A7</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f>ModuleReq!C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>ApplicationReq!A3</f>
+        <v>AR002</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>ApplicationReq!C3</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="3">
+        <f>ModuleReq!A8</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f>ModuleReq!C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9268E109-6D43-4A7B-8D41-CB8E642556A1}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="66.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDF262-5FE7-41AF-946E-552DDADCE373}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="26.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="str">
-        <f>Need!C2</f>
-        <v>As the user, I want to use the costed bill of material to analyse electrical cost</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="9">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="9">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9">
-        <v>10</v>
-      </c>
-      <c r="I2" s="9">
-        <f>D2*F2*H2</f>
-        <v>1000</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <f>D2*F2*K2</f>
-        <v>100</v>
-      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC926B3F-45E1-4A07-86DE-FEDC18CC146B}">
-  <dimension ref="A1:C4"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D331C627-C624-4869-8619-897F0D980D02}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="77.77734375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="66.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>Need!A2</f>
-        <v>N001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE665222-67F2-4612-AE0E-AB00FDB00E4B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9268E109-6D43-4A7B-8D41-CB8E642556A1}">
-  <dimension ref="B4:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="77.77734375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDF262-5FE7-41AF-946E-552DDADCE373}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D331C627-C624-4869-8619-897F0D980D02}">
-  <dimension ref="B4:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="77.77734375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>13</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>ApplicationFMEA!B2</f>
+        <v>AR001</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ElectricalBomAnalyser\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E08BA-7E09-4E2F-A2F3-4F6962894EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120CAE60-7D3B-4565-AE70-5EAD6EDB5522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CD613DC0-3E3F-45D7-9A81-B6EDC2BEC512}"/>
+    <workbookView xWindow="13650" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{CD613DC0-3E3F-45D7-9A81-B6EDC2BEC512}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lookup" sheetId="8" r:id="rId1"/>
+    <sheet name="WorkFlow" sheetId="9" r:id="rId1"/>
     <sheet name="UserNeeds" sheetId="1" r:id="rId2"/>
     <sheet name="NeedsFMEA" sheetId="5" r:id="rId3"/>
     <sheet name="ApplicationReq" sheetId="2" r:id="rId4"/>
@@ -21,10 +21,11 @@
     <sheet name="ModuleReq" sheetId="3" r:id="rId6"/>
     <sheet name="ModuleFMEA" sheetId="7" r:id="rId7"/>
     <sheet name="UnitTest" sheetId="4" r:id="rId8"/>
+    <sheet name="Lookup" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ApplicationFMEA!$A$1:$P$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UserNeeds!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UserNeeds!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="315">
   <si>
     <t>Source</t>
   </si>
@@ -453,12 +454,617 @@
   <si>
     <t>UT001</t>
   </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Get file</t>
+  </si>
+  <si>
+    <t>User gets the name of the factory where the product is manufactured by contacting the project manager</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>User gets the approval sheet from PLM.
+Searches for the EBOM information in the approval sheet.
+The extracts the EBOM by converting pdf to excel.</t>
+  </si>
+  <si>
+    <t>User gets the db upload template from the network drive.</t>
+  </si>
+  <si>
+    <t>User sets the company part number revision to A</t>
+  </si>
+  <si>
+    <t>dB template</t>
+  </si>
+  <si>
+    <t>PCBA name</t>
+  </si>
+  <si>
+    <t>Active status</t>
+  </si>
+  <si>
+    <t>User sets the active status to 'Y'.</t>
+  </si>
+  <si>
+    <t>User sets the active status to 'N'.</t>
+  </si>
+  <si>
+    <t>Alternative board</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>PCBA quantity per SKU</t>
+  </si>
+  <si>
+    <t>Critical Component</t>
+  </si>
+  <si>
+    <t>User standardizes the product factory name to match the list of factories in the dB template</t>
+  </si>
+  <si>
+    <t>User gets the SKU information from the approval sheet cover page. Alternatively the SKU information is available in the data file.</t>
+  </si>
+  <si>
+    <t>User standardizes the PCBA supplier name to match the list of PCBA suppliers in the dB template</t>
+  </si>
+  <si>
+    <t>User sets the PCBA supplier name to 'unknown' when the PCBA supplier name is not available.</t>
+  </si>
+  <si>
+    <t>User sets the product factory name to 'Yueda' when the product factory name is 'Jumeng'.</t>
+  </si>
+  <si>
+    <t>User gets the PCBA name from the approval sheet. Alternatively the PCBA name is available in the data file.</t>
+  </si>
+  <si>
+    <t>User gets the PCBA supplier name from the approval sheet. Alternatively the PCBA supplier is available in the data file.</t>
+  </si>
+  <si>
+    <t>User sets the quantity of PCBA used per SKU by reviewing the approval sheet. Typically this is set to 1</t>
+  </si>
+  <si>
+    <t>User removes all rows of data that contain PCBA manufacturing material information</t>
+  </si>
+  <si>
+    <t>User removes all rows of data that contain PCBA board information</t>
+  </si>
+  <si>
+    <t>User removes all rows of data that contain mechanical part information</t>
+  </si>
+  <si>
+    <t>User removes all rows of data that contain wire information</t>
+  </si>
+  <si>
+    <t>User removes all rows of data that contain wire information without a valid designator, quantity and cost information.</t>
+  </si>
+  <si>
+    <t>User standardizes the component field data to match the list of components in the db template</t>
+  </si>
+  <si>
+    <t>User replaces the '*' placed inside a designator by '000'.</t>
+  </si>
+  <si>
+    <t>User checks the quantity matches the number of designators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use sets the same manufacturer part number for each separate row of manufacturer name when only one manufacturer part number is listed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User removes the text 'Manufacturer', 'Mfg' and 'MPN' from the manufacturer name column </t>
+  </si>
+  <si>
+    <t>User sets the manufacturer name to 'Unknown' when the manufacturer name is not available.</t>
+  </si>
+  <si>
+    <t>User removes special characters from the end of manufacturer part number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User sets the same manufacturer name for each separate row of manufacturer part number when only one manufacturer name is listed </t>
+  </si>
+  <si>
+    <t>User removes the text 'MPN' and manufacturer name from manufacturer part number field</t>
+  </si>
+  <si>
+    <t>User sets the manufacturer part number to 'Unknown' when the manufacturer part number is not available</t>
+  </si>
+  <si>
+    <t>User sets empty critical component field to 'N' except for IC's and MCU's that are set to 'Y'</t>
+  </si>
+  <si>
+    <t>WF-1001</t>
+  </si>
+  <si>
+    <t>WF-1002</t>
+  </si>
+  <si>
+    <t>WF-1003</t>
+  </si>
+  <si>
+    <t>WF-1004</t>
+  </si>
+  <si>
+    <t>WF-1005</t>
+  </si>
+  <si>
+    <t>WF-1006</t>
+  </si>
+  <si>
+    <t>WF-1007</t>
+  </si>
+  <si>
+    <t>WF-1008</t>
+  </si>
+  <si>
+    <t>WF-1009</t>
+  </si>
+  <si>
+    <t>WF-1010</t>
+  </si>
+  <si>
+    <t>WF-1011</t>
+  </si>
+  <si>
+    <t>WF-1012</t>
+  </si>
+  <si>
+    <t>WF-1013</t>
+  </si>
+  <si>
+    <t>WF-1014</t>
+  </si>
+  <si>
+    <t>WF-1015</t>
+  </si>
+  <si>
+    <t>WF-1016</t>
+  </si>
+  <si>
+    <t>WF-1017</t>
+  </si>
+  <si>
+    <t>WF-1018</t>
+  </si>
+  <si>
+    <t>WF-1019</t>
+  </si>
+  <si>
+    <t>WF-1020</t>
+  </si>
+  <si>
+    <t>WF-1021</t>
+  </si>
+  <si>
+    <t>WF-1022</t>
+  </si>
+  <si>
+    <t>WF-1023</t>
+  </si>
+  <si>
+    <t>WF-1024</t>
+  </si>
+  <si>
+    <t>WF-1025</t>
+  </si>
+  <si>
+    <t>WF-1026</t>
+  </si>
+  <si>
+    <t>WF-1027</t>
+  </si>
+  <si>
+    <t>WF-1028</t>
+  </si>
+  <si>
+    <t>WF-1029</t>
+  </si>
+  <si>
+    <t>WF-1030</t>
+  </si>
+  <si>
+    <t>WF-1031</t>
+  </si>
+  <si>
+    <t>WF-1032</t>
+  </si>
+  <si>
+    <t>WF-1033</t>
+  </si>
+  <si>
+    <t>WF-1034</t>
+  </si>
+  <si>
+    <t>WF-1035</t>
+  </si>
+  <si>
+    <t>WF-1036</t>
+  </si>
+  <si>
+    <t>WF-1037</t>
+  </si>
+  <si>
+    <t>WF-1038</t>
+  </si>
+  <si>
+    <t>WF-1039</t>
+  </si>
+  <si>
+    <t>WF-1040</t>
+  </si>
+  <si>
+    <t>WF-1041</t>
+  </si>
+  <si>
+    <t>WF-1042</t>
+  </si>
+  <si>
+    <t>WF-1043</t>
+  </si>
+  <si>
+    <t>WF-1044</t>
+  </si>
+  <si>
+    <t>WF-1045</t>
+  </si>
+  <si>
+    <t>WF-1046</t>
+  </si>
+  <si>
+    <t>EBOM upload to dB</t>
+  </si>
+  <si>
+    <t>Work flow</t>
+  </si>
+  <si>
+    <t>User sets the alternative board to 'N', unless the board can be interchanged with another part number</t>
+  </si>
+  <si>
+    <t>User separates each designator by a comma</t>
+  </si>
+  <si>
+    <t>User adds the in between designators when the designators are separated by a dash.</t>
+  </si>
+  <si>
+    <t>User sets the quantity to zero for the new row of data when separating manufacturer names to separate rows</t>
+  </si>
+  <si>
+    <t>User sets the quantity to zero for the new row of data when separating manufacturer part number to separate rows</t>
+  </si>
+  <si>
+    <t>User separates each manufacturer name by a comma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User separates each manufacturer name to a separate rows when component type is not resistor, capacitor or connector </t>
+  </si>
+  <si>
+    <t>User separates each manufacturer part number by a comma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User separates each manufacturer part number to a separate rows when component type is not resistor, capacitor or connector </t>
+  </si>
+  <si>
+    <t>User sets the unit price in RMB</t>
+  </si>
+  <si>
+    <t>User sets the unit prince in RMB by converting the the unit price in USD to unit price in RMB when foreign exchange rate is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User sets the unit price in USD by converting the unit price not in USD or RMB to unit price in USB and add the foreign exchange rate and date into the remarks </t>
+  </si>
+  <si>
+    <t>CBOM upload to dB</t>
+  </si>
+  <si>
+    <t>Unit price</t>
+  </si>
+  <si>
+    <t>User standardizes the designator filed data to removes special characters</t>
+  </si>
+  <si>
+    <t>WF-1047</t>
+  </si>
+  <si>
+    <t>Output data file</t>
+  </si>
+  <si>
+    <t>User sets the output data file name to the format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</t>
+  </si>
+  <si>
+    <t>User sets the output data file name to the format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</t>
+  </si>
+  <si>
+    <t>WF-1048</t>
+  </si>
+  <si>
+    <t>WF-1049</t>
+  </si>
+  <si>
+    <t>WF-1050</t>
+  </si>
+  <si>
+    <t>WF-1051</t>
+  </si>
+  <si>
+    <t>WF-1052</t>
+  </si>
+  <si>
+    <t>User will remove alphabets from the designators that are preceded by numbers</t>
+  </si>
+  <si>
+    <t>User checks there are no duplicate designators</t>
+  </si>
+  <si>
+    <t>WF-1053</t>
+  </si>
+  <si>
+    <t>User checks the designator start with an alphabet</t>
+  </si>
+  <si>
+    <t>User removes spaces and escape characters from the designator field</t>
+  </si>
+  <si>
+    <t>User removes spaces and escape characters from the SKU data field</t>
+  </si>
+  <si>
+    <t>WF-1054</t>
+  </si>
+  <si>
+    <t>WF-1055</t>
+  </si>
+  <si>
+    <t>WF-1056</t>
+  </si>
+  <si>
+    <t>User will set the quantity to zero for duplicate reference designator when the same PCBA uses different value for a designator to achieve different configuration of the board. The configuration is recorded in the remarks as follows 'for use with XXX'.</t>
+  </si>
+  <si>
+    <t>User separates alternative designator grouped with other designators and sets the quantity to zero</t>
+  </si>
+  <si>
+    <t>WF-2001</t>
+  </si>
+  <si>
+    <t>WF-2002</t>
+  </si>
+  <si>
+    <t>WF-2003</t>
+  </si>
+  <si>
+    <t>WF-2004</t>
+  </si>
+  <si>
+    <t>WF-2005</t>
+  </si>
+  <si>
+    <t>WF-2006</t>
+  </si>
+  <si>
+    <t>WF-2007</t>
+  </si>
+  <si>
+    <t>WF-2008</t>
+  </si>
+  <si>
+    <t>WF-2009</t>
+  </si>
+  <si>
+    <t>WF-2010</t>
+  </si>
+  <si>
+    <t>WF-2011</t>
+  </si>
+  <si>
+    <t>WF-2012</t>
+  </si>
+  <si>
+    <t>WF-2013</t>
+  </si>
+  <si>
+    <t>WF-2014</t>
+  </si>
+  <si>
+    <t>WF-2015</t>
+  </si>
+  <si>
+    <t>WF-2016</t>
+  </si>
+  <si>
+    <t>WF-2017</t>
+  </si>
+  <si>
+    <t>WF-2018</t>
+  </si>
+  <si>
+    <t>WF-2019</t>
+  </si>
+  <si>
+    <t>WF-2020</t>
+  </si>
+  <si>
+    <t>WF-2022</t>
+  </si>
+  <si>
+    <t>WF-2023</t>
+  </si>
+  <si>
+    <t>WF-2024</t>
+  </si>
+  <si>
+    <t>WF-2025</t>
+  </si>
+  <si>
+    <t>WF-2026</t>
+  </si>
+  <si>
+    <t>WF-2027</t>
+  </si>
+  <si>
+    <t>WF-2028</t>
+  </si>
+  <si>
+    <t>WF-2029</t>
+  </si>
+  <si>
+    <t>WF-2030</t>
+  </si>
+  <si>
+    <t>WF-2031</t>
+  </si>
+  <si>
+    <t>WF-2032</t>
+  </si>
+  <si>
+    <t>WF-2033</t>
+  </si>
+  <si>
+    <t>WF-2034</t>
+  </si>
+  <si>
+    <t>WF-2035</t>
+  </si>
+  <si>
+    <t>WF-2036</t>
+  </si>
+  <si>
+    <t>WF-2037</t>
+  </si>
+  <si>
+    <t>WF-2038</t>
+  </si>
+  <si>
+    <t>WF-2039</t>
+  </si>
+  <si>
+    <t>WF-2040</t>
+  </si>
+  <si>
+    <t>WF-2041</t>
+  </si>
+  <si>
+    <t>WF-2042</t>
+  </si>
+  <si>
+    <t>WF-2043</t>
+  </si>
+  <si>
+    <t>WF-2044</t>
+  </si>
+  <si>
+    <t>WF-2045</t>
+  </si>
+  <si>
+    <t>WF-2046</t>
+  </si>
+  <si>
+    <t>WF-2047</t>
+  </si>
+  <si>
+    <t>WF-2048</t>
+  </si>
+  <si>
+    <t>WF-2049</t>
+  </si>
+  <si>
+    <t>WF-2050</t>
+  </si>
+  <si>
+    <t>WF-2051</t>
+  </si>
+  <si>
+    <t>WF-2052</t>
+  </si>
+  <si>
+    <t>WF-2053</t>
+  </si>
+  <si>
+    <t>WF-2054</t>
+  </si>
+  <si>
+    <t>WF-2055</t>
+  </si>
+  <si>
+    <t>WF-2056</t>
+  </si>
+  <si>
+    <t>WF-2057</t>
+  </si>
+  <si>
+    <t>Input data file</t>
+  </si>
+  <si>
+    <t>Product factory name</t>
+  </si>
+  <si>
+    <t>PCBA supplier name</t>
+  </si>
+  <si>
+    <t>SKU number</t>
+  </si>
+  <si>
+    <t>PCBA part number</t>
+  </si>
+  <si>
+    <t>User gets the PCBA part number from the approval sheet.</t>
+  </si>
+  <si>
+    <t>When the PCBA part number is not available, the user will set it to the build name.</t>
+  </si>
+  <si>
+    <t>PCBA revision</t>
+  </si>
+  <si>
+    <t>User gets the PCBA revision from the approval sheet.</t>
+  </si>
+  <si>
+    <t>User checks the PCBA revision field starts with an alpabet followed by zero or more numbers</t>
+  </si>
+  <si>
+    <t>Data selection</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>User gets an excel file with CBOM data. This data is supplied by the PCBA manufacturer</t>
+  </si>
+  <si>
+    <t>User separates the data in the description field by comma</t>
+  </si>
+  <si>
+    <t>User removes rows of data that have no designators</t>
+  </si>
+  <si>
+    <t>User removes spaces from the data field</t>
+  </si>
+  <si>
+    <t>User checks the SKU on the company SKU authentication portal</t>
+  </si>
+  <si>
+    <t>WF-3001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +1105,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -526,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -538,6 +1152,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -853,110 +1470,1621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FA271-0A72-48D9-AB8D-3FFFAD7DD9C0}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A114BB-E97B-44E8-A2B2-B0897A20E420}">
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A11:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="1.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="44.44140625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
+      <c r="B1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>A1</f>
+        <v>ID</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f t="shared" ref="G1:I1" si="0">B1</f>
+        <v>Work flow</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Task</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Details</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f>F1</f>
+        <v>ID</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f t="shared" ref="L1" si="1">G1</f>
+        <v>Work flow</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f t="shared" ref="M1" si="2">H1</f>
+        <v>Task</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <f t="shared" ref="N1" si="3">I1</f>
+        <v>Details</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>C3</f>
+        <v>dB template</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>D3</f>
+        <v>User gets the db upload template from the network drive.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>C4</f>
+        <v>SKU number</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>D4</f>
+        <v>User gets the SKU information from the approval sheet cover page. Alternatively the SKU information is available in the data file.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>C5</f>
+        <v>SKU number</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>D5</f>
+        <v>User checks the SKU on the company SKU authentication portal</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>C6</f>
+        <v>SKU number</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>D6</f>
+        <v>User removes spaces and escape characters from the SKU data field</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>C7</f>
+        <v>Product factory name</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>D7</f>
+        <v>User gets the name of the factory where the product is manufactured by contacting the project manager</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>C8</f>
+        <v>Product factory name</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f>D8</f>
+        <v>User standardizes the product factory name to match the list of factories in the dB template</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>C9</f>
+        <v>Product factory name</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>D9</f>
+        <v>User sets the product factory name to 'Yueda' when the product factory name is 'Jumeng'.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>C10</f>
+        <v>PCBA supplier name</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>D10</f>
+        <v>User gets the PCBA supplier name from the approval sheet. Alternatively the PCBA supplier is available in the data file.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>C11</f>
+        <v>PCBA supplier name</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>D11</f>
+        <v>User standardizes the PCBA supplier name to match the list of PCBA suppliers in the dB template</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>C12</f>
+        <v>PCBA supplier name</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f>D12</f>
+        <v>User sets the PCBA supplier name to 'unknown' when the PCBA supplier name is not available.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>C13</f>
+        <v>PCBA name</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f>D13</f>
+        <v>User gets the PCBA name from the approval sheet. Alternatively the PCBA name is available in the data file.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>C14</f>
+        <v>PCBA part number</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f>D14</f>
+        <v>User gets the PCBA part number from the approval sheet.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>C15</f>
+        <v>PCBA part number</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f>D15</f>
+        <v>When the PCBA part number is not available, the user will set it to the build name.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>C16</f>
+        <v>PCBA revision</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>C17</f>
+        <v>PCBA revision</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f>D17</f>
+        <v>User checks the PCBA revision field starts with an alpabet followed by zero or more numbers</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>C18</f>
+        <v>PCBA quantity per SKU</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f>D18</f>
+        <v>User sets the quantity of PCBA used per SKU by reviewing the approval sheet. Typically this is set to 1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f>C19</f>
+        <v>Active status</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>C20</f>
+        <v>Alternative board</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f>D20</f>
+        <v>User sets the alternative board to 'N', unless the board can be interchanged with another part number</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>C21</f>
+        <v>Data selection</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f>D21</f>
+        <v>User removes rows of data that have no designators</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>C22</f>
+        <v>Description</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>D22</f>
+        <v>User removes spaces from the data field</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>C23</f>
+        <v>Description</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f>D23</f>
+        <v>User separates the data in the description field by comma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>C24</f>
+        <v>Description</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f>D24</f>
+        <v>User removes all rows of data that contain PCBA manufacturing material information</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>C26</f>
+        <v>Description</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f>D26</f>
+        <v>User removes all rows of data that contain mechanical part information</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f>C27</f>
+        <v>Description</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f>C28</f>
+        <v>Component</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f>D28</f>
+        <v>User standardizes the component field data to match the list of components in the db template</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>C29</f>
+        <v>Designator</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f>D29</f>
+        <v>User separates each designator by a comma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" ref="H30:I53" si="4">C30</f>
+        <v>Designator</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User removes spaces and escape characters from the designator field</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Designator</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User standardizes the designator filed data to removes special characters</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Designator</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User checks the designator start with an alphabet</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Designator</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User will remove alphabets from the designators that are preceded by numbers</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Designator</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User adds the in between designators when the designators are separated by a dash.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Designator</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User replaces the '*' placed inside a designator by '000'.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Designator</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User checks there are no duplicate designators</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Designator</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User will set the quantity to zero for duplicate reference designator when the same PCBA uses different value for a designator to achieve different configuration of the board. The configuration is recorded in the remarks as follows 'for use with XXX'.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Designator</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User separates alternative designator grouped with other designators and sets the quantity to zero</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User checks the quantity matches the number of designators</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User sets the quantity to zero for the new row of data when separating manufacturer names to separate rows</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User sets the quantity to zero for the new row of data when separating manufacturer part number to separate rows</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Name</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User separates each manufacturer name by a comma</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Name</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">User separates each manufacturer name to a separate rows when component type is not resistor, capacitor or connector </v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Name</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Use sets the same manufacturer part number for each separate row of manufacturer name when only one manufacturer part number is listed </v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Name</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">User removes the text 'Manufacturer', 'Mfg' and 'MPN' from the manufacturer name column </v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Name</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User sets the manufacturer name to 'Unknown' when the manufacturer name is not available.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Part Number</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User separates each manufacturer part number by a comma</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Part Number</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">User separates each manufacturer part number to a separate rows when component type is not resistor, capacitor or connector </v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Part Number</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">User sets the same manufacturer name for each separate row of manufacturer part number when only one manufacturer name is listed </v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Part Number</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User removes special characters from the end of manufacturer part number</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Part Number</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User removes the text 'MPN' and manufacturer name from manufacturer part number field</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manufacturer Part Number</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User sets the manufacturer part number to 'Unknown' when the manufacturer part number is not available</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Critical Component</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>User sets empty critical component field to 'N' except for IC's and MCU's that are set to 'Y'</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAC9AAD-44E6-4961-9956-B41DD506D942}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -968,7 +3096,7 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -984,8 +3112,11 @@
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +3133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +3144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +3155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +3166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +3177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +3189,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{CDAC9AAD-44E6-4961-9956-B41DD506D942}"/>
+  <autoFilter ref="A1:F1" xr:uid="{CDAC9AAD-44E6-4961-9956-B41DD506D942}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -1262,7 +3393,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1463,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE665222-67F2-4612-AE0E-AB00FDB00E4B}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
@@ -2315,4 +4446,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FA271-0A72-48D9-AB8D-3FFFAD7DD9C0}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ElectricalBomAnalyser\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120CAE60-7D3B-4565-AE70-5EAD6EDB5522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7CC215-C70E-4603-9BD3-3EB715BBFF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13650" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{CD613DC0-3E3F-45D7-9A81-B6EDC2BEC512}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="312">
   <si>
     <t>Source</t>
   </si>
@@ -826,9 +826,6 @@
     <t>WF-1055</t>
   </si>
   <si>
-    <t>WF-1056</t>
-  </si>
-  <si>
     <t>User will set the quantity to zero for duplicate reference designator when the same PCBA uses different value for a designator to achieve different configuration of the board. The configuration is recorded in the remarks as follows 'for use with XXX'.</t>
   </si>
   <si>
@@ -997,12 +994,6 @@
     <t>WF-2055</t>
   </si>
   <si>
-    <t>WF-2056</t>
-  </si>
-  <si>
-    <t>WF-2057</t>
-  </si>
-  <si>
     <t>Input data file</t>
   </si>
   <si>
@@ -1045,9 +1036,6 @@
     <t>User gets an excel file with CBOM data. This data is supplied by the PCBA manufacturer</t>
   </si>
   <si>
-    <t>User separates the data in the description field by comma</t>
-  </si>
-  <si>
     <t>User removes rows of data that have no designators</t>
   </si>
   <si>
@@ -1058,6 +1046,9 @@
   </si>
   <si>
     <t>WF-3001</t>
+  </si>
+  <si>
+    <t>WF-2021</t>
   </si>
 </sst>
 </file>
@@ -1471,11 +1462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A114BB-E97B-44E8-A2B2-B0897A20E420}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1551,34 +1542,34 @@
         <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>115</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
@@ -1595,17 +1586,17 @@
         <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f>C3</f>
+        <f t="shared" ref="H3:H15" si="4">C3</f>
         <v>dB template</v>
       </c>
       <c r="I3" s="5" t="str">
-        <f>D3</f>
+        <f t="shared" ref="I3:I15" si="5">D3</f>
         <v>User gets the db upload template from the network drive.</v>
       </c>
     </row>
@@ -1617,23 +1608,23 @@
         <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="5" t="str">
-        <f>C4</f>
+        <f t="shared" si="4"/>
         <v>SKU number</v>
       </c>
       <c r="I4" s="5" t="str">
-        <f>D4</f>
+        <f t="shared" si="5"/>
         <v>User gets the SKU information from the approval sheet cover page. Alternatively the SKU information is available in the data file.</v>
       </c>
     </row>
@@ -1645,23 +1636,23 @@
         <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f>C5</f>
+        <f t="shared" si="4"/>
         <v>SKU number</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f>D5</f>
+        <f t="shared" si="5"/>
         <v>User checks the SKU on the company SKU authentication portal</v>
       </c>
     </row>
@@ -1673,23 +1664,23 @@
         <v>203</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>C6</f>
+        <f t="shared" si="4"/>
         <v>SKU number</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f>D6</f>
+        <f t="shared" si="5"/>
         <v>User removes spaces and escape characters from the SKU data field</v>
       </c>
     </row>
@@ -1701,23 +1692,23 @@
         <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f>C7</f>
+        <f t="shared" si="4"/>
         <v>Product factory name</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f>D7</f>
+        <f t="shared" si="5"/>
         <v>User gets the name of the factory where the product is manufactured by contacting the project manager</v>
       </c>
     </row>
@@ -1729,23 +1720,23 @@
         <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f>C8</f>
+        <f t="shared" si="4"/>
         <v>Product factory name</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f>D8</f>
+        <f t="shared" si="5"/>
         <v>User standardizes the product factory name to match the list of factories in the dB template</v>
       </c>
     </row>
@@ -1757,23 +1748,23 @@
         <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f>C9</f>
+        <f t="shared" si="4"/>
         <v>Product factory name</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f>D9</f>
+        <f t="shared" si="5"/>
         <v>User sets the product factory name to 'Yueda' when the product factory name is 'Jumeng'.</v>
       </c>
     </row>
@@ -1785,23 +1776,23 @@
         <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f>C10</f>
+        <f t="shared" si="4"/>
         <v>PCBA supplier name</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f>D10</f>
+        <f t="shared" si="5"/>
         <v>User gets the PCBA supplier name from the approval sheet. Alternatively the PCBA supplier is available in the data file.</v>
       </c>
     </row>
@@ -1813,23 +1804,23 @@
         <v>203</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f>C11</f>
+        <f t="shared" si="4"/>
         <v>PCBA supplier name</v>
       </c>
       <c r="I11" s="5" t="str">
-        <f>D11</f>
+        <f t="shared" si="5"/>
         <v>User standardizes the PCBA supplier name to match the list of PCBA suppliers in the dB template</v>
       </c>
     </row>
@@ -1841,23 +1832,23 @@
         <v>203</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f>C12</f>
+        <f t="shared" si="4"/>
         <v>PCBA supplier name</v>
       </c>
       <c r="I12" s="5" t="str">
-        <f>D12</f>
+        <f t="shared" si="5"/>
         <v>User sets the PCBA supplier name to 'unknown' when the PCBA supplier name is not available.</v>
       </c>
     </row>
@@ -1875,17 +1866,17 @@
         <v>138</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f>C13</f>
+        <f t="shared" si="4"/>
         <v>PCBA name</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f>D13</f>
+        <f t="shared" si="5"/>
         <v>User gets the PCBA name from the approval sheet. Alternatively the PCBA name is available in the data file.</v>
       </c>
     </row>
@@ -1897,23 +1888,23 @@
         <v>203</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f>C14</f>
+        <f t="shared" si="4"/>
         <v>PCBA part number</v>
       </c>
       <c r="I14" s="5" t="str">
-        <f>D14</f>
+        <f t="shared" si="5"/>
         <v>User gets the PCBA part number from the approval sheet.</v>
       </c>
     </row>
@@ -1925,23 +1916,23 @@
         <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f>C15</f>
+        <f t="shared" si="4"/>
         <v>PCBA part number</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f>D15</f>
+        <f t="shared" si="5"/>
         <v>When the PCBA part number is not available, the user will set it to the build name.</v>
       </c>
     </row>
@@ -1953,19 +1944,19 @@
         <v>203</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>C16</f>
+        <f t="shared" ref="H16:H23" si="6">C16</f>
         <v>PCBA revision</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1980,19 +1971,19 @@
         <v>203</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f>C17</f>
+        <f t="shared" si="6"/>
         <v>PCBA revision</v>
       </c>
       <c r="I17" s="2" t="str">
@@ -2014,13 +2005,13 @@
         <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>C18</f>
+        <f t="shared" si="6"/>
         <v>PCBA quantity per SKU</v>
       </c>
       <c r="I18" s="5" t="str">
@@ -2042,13 +2033,13 @@
         <v>124</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>C19</f>
+        <f t="shared" si="6"/>
         <v>Active status</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -2069,13 +2060,13 @@
         <v>205</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>C20</f>
+        <f t="shared" si="6"/>
         <v>Alternative board</v>
       </c>
       <c r="I20" s="5" t="str">
@@ -2091,19 +2082,19 @@
         <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>C21</f>
+        <f t="shared" si="6"/>
         <v>Data selection</v>
       </c>
       <c r="I21" s="5" t="str">
@@ -2122,16 +2113,16 @@
         <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>C22</f>
+        <f t="shared" si="6"/>
         <v>Description</v>
       </c>
       <c r="I22" s="5" t="str">
@@ -2150,21 +2141,21 @@
         <v>127</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>310</v>
+        <v>141</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f>C23</f>
+        <f t="shared" si="6"/>
         <v>Description</v>
       </c>
       <c r="I23" s="5" t="str">
         <f>D23</f>
-        <v>User separates the data in the description field by comma</v>
+        <v>User removes all rows of data that contain PCBA manufacturing material information</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2178,21 +2169,10 @@
         <v>127</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H24" s="5" t="str">
-        <f>C24</f>
-        <v>Description</v>
-      </c>
-      <c r="I24" s="5" t="str">
-        <f>D24</f>
-        <v>User removes all rows of data that contain PCBA manufacturing material information</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2206,13 +2186,24 @@
         <v>127</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>C25</f>
+        <v>Description</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>D25</f>
+        <v>User removes all rows of data that contain mechanical part information</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>181</v>
       </c>
@@ -2223,24 +2214,23 @@
         <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="H26" s="2" t="str">
         <f>C26</f>
         <v>Description</v>
       </c>
-      <c r="I26" s="5" t="str">
-        <f>D26</f>
-        <v>User removes all rows of data that contain mechanical part information</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="I26" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>182</v>
       </c>
@@ -2248,23 +2238,24 @@
         <v>203</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H27" s="2" t="str">
+      <c r="H27" s="5" t="str">
         <f>C27</f>
-        <v>Description</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>145</v>
+        <v>Component</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f>D27</f>
+        <v>User standardizes the component field data to match the list of components in the db template</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2275,24 +2266,24 @@
         <v>203</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H28" s="5" t="str">
         <f>C28</f>
-        <v>Component</v>
+        <v>Designator</v>
       </c>
       <c r="I28" s="5" t="str">
         <f>D28</f>
-        <v>User standardizes the component field data to match the list of components in the db template</v>
+        <v>User separates each designator by a comma</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2306,21 +2297,21 @@
         <v>129</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f>C29</f>
+        <f t="shared" ref="H29:I52" si="7">C29</f>
         <v>Designator</v>
       </c>
       <c r="I29" s="5" t="str">
-        <f>D29</f>
-        <v>User separates each designator by a comma</v>
+        <f t="shared" si="7"/>
+        <v>User removes spaces and escape characters from the designator field</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2334,21 +2325,21 @@
         <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f t="shared" ref="H30:I53" si="4">C30</f>
+        <f t="shared" si="7"/>
         <v>Designator</v>
       </c>
       <c r="I30" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User removes spaces and escape characters from the designator field</v>
+        <f t="shared" si="7"/>
+        <v>User standardizes the designator filed data to removes special characters</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2362,21 +2353,21 @@
         <v>129</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Designator</v>
       </c>
       <c r="I31" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User standardizes the designator filed data to removes special characters</v>
+        <f t="shared" si="7"/>
+        <v>User checks the designator start with an alphabet</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2390,21 +2381,21 @@
         <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Designator</v>
       </c>
       <c r="I32" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User checks the designator start with an alphabet</v>
+        <f t="shared" si="7"/>
+        <v>User will remove alphabets from the designators that are preceded by numbers</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2418,21 +2409,21 @@
         <v>129</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Designator</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User will remove alphabets from the designators that are preceded by numbers</v>
+        <f t="shared" si="7"/>
+        <v>User adds the in between designators when the designators are separated by a dash.</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2446,21 +2437,21 @@
         <v>129</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Designator</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User adds the in between designators when the designators are separated by a dash.</v>
+        <f t="shared" si="7"/>
+        <v>User replaces the '*' placed inside a designator by '000'.</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2474,24 +2465,24 @@
         <v>129</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Designator</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User replaces the '*' placed inside a designator by '000'.</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>User checks there are no duplicate designators</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="69" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>191</v>
       </c>
@@ -2502,24 +2493,24 @@
         <v>129</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Designator</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User checks there are no duplicate designators</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>User will set the quantity to zero for duplicate reference designator when the same PCBA uses different value for a designator to achieve different configuration of the board. The configuration is recorded in the remarks as follows 'for use with XXX'.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>192</v>
       </c>
@@ -2533,18 +2524,18 @@
         <v>238</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Designator</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User will set the quantity to zero for duplicate reference designator when the same PCBA uses different value for a designator to achieve different configuration of the board. The configuration is recorded in the remarks as follows 'for use with XXX'.</v>
+        <f t="shared" si="7"/>
+        <v>User separates alternative designator grouped with other designators and sets the quantity to zero</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2555,27 +2546,27 @@
         <v>203</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Designator</v>
+        <f t="shared" si="7"/>
+        <v>Quantity</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User separates alternative designator grouped with other designators and sets the quantity to zero</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>User checks the quantity matches the number of designators</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>194</v>
       </c>
@@ -2586,21 +2577,21 @@
         <v>130</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Quantity</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User checks the quantity matches the number of designators</v>
+        <f t="shared" si="7"/>
+        <v>User sets the quantity to zero for the new row of data when separating manufacturer names to separate rows</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
@@ -2614,24 +2605,24 @@
         <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Quantity</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User sets the quantity to zero for the new row of data when separating manufacturer names to separate rows</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>User sets the quantity to zero for the new row of data when separating manufacturer part number to separate rows</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>196</v>
       </c>
@@ -2639,27 +2630,27 @@
         <v>203</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Quantity</v>
+        <f t="shared" si="7"/>
+        <v>Manufacturer Name</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User sets the quantity to zero for the new row of data when separating manufacturer part number to separate rows</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>User separates each manufacturer name by a comma</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>197</v>
       </c>
@@ -2667,24 +2658,24 @@
         <v>203</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Manufacturer Name</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User separates each manufacturer name by a comma</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">User separates each manufacturer name to a separate rows when component type is not resistor, capacitor or connector </v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
@@ -2695,27 +2686,27 @@
         <v>203</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Manufacturer Name</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">User separates each manufacturer name to a separate rows when component type is not resistor, capacitor or connector </v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Use sets the same manufacturer part number for each separate row of manufacturer name when only one manufacturer part number is listed </v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>199</v>
       </c>
@@ -2723,24 +2714,24 @@
         <v>203</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Manufacturer Name</v>
       </c>
       <c r="I44" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Use sets the same manufacturer part number for each separate row of manufacturer name when only one manufacturer part number is listed </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">User removes the text 'Manufacturer', 'Mfg' and 'MPN' from the manufacturer name column </v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2751,24 +2742,24 @@
         <v>203</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Manufacturer Name</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">User removes the text 'Manufacturer', 'Mfg' and 'MPN' from the manufacturer name column </v>
+        <f t="shared" si="7"/>
+        <v>User sets the manufacturer name to 'Unknown' when the manufacturer name is not available.</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2779,27 +2770,27 @@
         <v>203</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Manufacturer Name</v>
+        <f t="shared" si="7"/>
+        <v>Manufacturer Part Number</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User sets the manufacturer name to 'Unknown' when the manufacturer name is not available.</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>User separates each manufacturer part number by a comma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>202</v>
       </c>
@@ -2807,24 +2798,24 @@
         <v>203</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Manufacturer Part Number</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User separates each manufacturer part number by a comma</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">User separates each manufacturer part number to a separate rows when component type is not resistor, capacitor or connector </v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
@@ -2835,27 +2826,27 @@
         <v>203</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Manufacturer Part Number</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">User separates each manufacturer part number to a separate rows when component type is not resistor, capacitor or connector </v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">User sets the same manufacturer name for each separate row of manufacturer part number when only one manufacturer name is listed </v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>224</v>
       </c>
@@ -2863,24 +2854,24 @@
         <v>203</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Manufacturer Part Number</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">User sets the same manufacturer name for each separate row of manufacturer part number when only one manufacturer name is listed </v>
+        <f t="shared" si="7"/>
+        <v>User removes special characters from the end of manufacturer part number</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2891,27 +2882,27 @@
         <v>203</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Manufacturer Part Number</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User removes special characters from the end of manufacturer part number</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>User removes the text 'MPN' and manufacturer name from manufacturer part number field</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>226</v>
       </c>
@@ -2919,27 +2910,27 @@
         <v>203</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Manufacturer Part Number</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User removes the text 'MPN' and manufacturer name from manufacturer part number field</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>User sets the manufacturer part number to 'Unknown' when the manufacturer part number is not available</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>227</v>
       </c>
@@ -2947,60 +2938,49 @@
         <v>203</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Manufacturer Part Number</v>
+        <f t="shared" si="7"/>
+        <v>Critical Component</v>
       </c>
       <c r="I52" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User sets the manufacturer part number to 'Unknown' when the manufacturer part number is not available</v>
+        <f t="shared" si="7"/>
+        <v>User sets empty critical component field to 'N' except for IC's and MCU's that are set to 'Y'</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H53" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Critical Component</v>
-      </c>
-      <c r="I53" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>User sets empty critical component field to 'N' except for IC's and MCU's that are set to 'Y'</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="H53" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>217</v>
@@ -3009,7 +2989,7 @@
         <v>218</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
@@ -3017,7 +2997,7 @@
         <v>235</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>217</v>
@@ -3026,49 +3006,32 @@
         <v>218</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>217</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I57" s="2" t="s">
         <v>222</v>
       </c>
     </row>

--- a/docs/Requirements.xlsx
+++ b/docs/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ElectricalBomAnalyser\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2A337D-3EE3-4650-BF9D-EAB5D93E159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01948783-C5DA-4BCF-ACE8-578EE53A7662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="715" activeTab="4" xr2:uid="{CD613DC0-3E3F-45D7-9A81-B6EDC2BEC512}"/>
+    <workbookView xWindow="13650" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="689" activeTab="3" xr2:uid="{CD613DC0-3E3F-45D7-9A81-B6EDC2BEC512}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="9" r:id="rId1"/>
@@ -26,9 +26,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">aFMEA!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Application!$A$1:$F$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Module!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Module!$A$1:$F$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Needs!$A$1:$H$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">nFMEA!$A$1:$P$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">nFMEA!$A$1:$P$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tasks!$A$1:$D$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="729">
   <si>
     <t>Source</t>
   </si>
@@ -2059,9 +2059,6 @@
     <t>AF-046</t>
   </si>
   <si>
-    <t>The application is not able to import data from an excel file</t>
-  </si>
-  <si>
     <t>The appication shall read CBOM data supplied by the PCBA manufacturer from an excel format file</t>
   </si>
   <si>
@@ -2117,6 +2114,150 @@
   </si>
   <si>
     <t xml:space="preserve">The application does not know what data to include in the output file </t>
+  </si>
+  <si>
+    <t>AF-048</t>
+  </si>
+  <si>
+    <t>AF-049</t>
+  </si>
+  <si>
+    <t>AF-050</t>
+  </si>
+  <si>
+    <t>AF-051</t>
+  </si>
+  <si>
+    <t>AF-052</t>
+  </si>
+  <si>
+    <t>AF-053</t>
+  </si>
+  <si>
+    <t>AF-054</t>
+  </si>
+  <si>
+    <t>AF-055</t>
+  </si>
+  <si>
+    <t>AF-056</t>
+  </si>
+  <si>
+    <t>AF-057</t>
+  </si>
+  <si>
+    <t>AF-058</t>
+  </si>
+  <si>
+    <t>AF-059</t>
+  </si>
+  <si>
+    <t>AF-060</t>
+  </si>
+  <si>
+    <t>AF-061</t>
+  </si>
+  <si>
+    <t>The application does not set model number to the value identified by the label 'Model No.'</t>
+  </si>
+  <si>
+    <t>MR-003</t>
+  </si>
+  <si>
+    <t>MR-004</t>
+  </si>
+  <si>
+    <t>MR-005</t>
+  </si>
+  <si>
+    <t>AF-062</t>
+  </si>
+  <si>
+    <t>AF-063</t>
+  </si>
+  <si>
+    <t>The application is not able to read CBOM data from an excel file</t>
+  </si>
+  <si>
+    <t>It is a good idea to allow the user to manually verify the model number. Its serves as a catch all if software is not robust for all edge cases</t>
+  </si>
+  <si>
+    <t>This requirement has been written to capture the company model number format. Some level of flexibility has been added by allowing one additional additional character that what is currently being used to allow for future model number series growth</t>
+  </si>
+  <si>
+    <t>The module shall limit the model number to the format 'XYZ'. Where: X is 2 to 3 alphabits, Y is 3 to 5 numbers and Z is 0 to 3 alphabits</t>
+  </si>
+  <si>
+    <t>The module shall prompt the user to manually verify the model number.</t>
+  </si>
+  <si>
+    <t>The application does NOT include the model number in the data generated to populate the cost walk template</t>
+  </si>
+  <si>
+    <t>The user is not able to link the cost walk to a model number. This may cause confusion when reviewing the cost walk.</t>
+  </si>
+  <si>
+    <t>The application does not set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</t>
+  </si>
+  <si>
+    <t>The application does not correctly identify and read the data from the data input file</t>
+  </si>
+  <si>
+    <t>MR-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The module shall limit the build number to the format 'XY.Z'. Where X is 1 to 3 alphabits, Y is 0 to 3 numbers, optional decimal point, and Z is 0 to 3 numbers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The requirement has been written to capture all possible combinations of build stage number </t>
+  </si>
+  <si>
+    <t>The module shall prompt the user to manually verify the build stage.</t>
+  </si>
+  <si>
+    <t>When prompted to confirm the model number, the module shall allow the user to manually overwrite the model number</t>
+  </si>
+  <si>
+    <t>When prompted to confirm the build stage, the module shall allow the user to manually overwrite the build stage</t>
+  </si>
+  <si>
+    <t>It is a good idea to allow the user to manually verify the build stage should the application not catch edge case formatting issues</t>
+  </si>
+  <si>
+    <t>MR-007</t>
+  </si>
+  <si>
+    <t>MR-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was deemed a good idea to allow the user to manually modify the build stage should the application not catch edge case formatting issues </t>
+  </si>
+  <si>
+    <t>It was deemed a good idea to allow the user to manually modify the build stage should the application not catch edge case formatting issues</t>
+  </si>
+  <si>
+    <t>MR-009</t>
+  </si>
+  <si>
+    <t>Arbitrarily selected string as a placeholder</t>
+  </si>
+  <si>
+    <t>AF-064</t>
+  </si>
+  <si>
+    <t>When the module does not identify a valid model number, it shall default to M00</t>
+  </si>
+  <si>
+    <t>MR-010</t>
+  </si>
+  <si>
+    <t>When the module does not identify a valid build stage, it shall default to B00</t>
+  </si>
+  <si>
+    <t>The application does NOT include the build stage in the data generated to populate the cost walk template</t>
+  </si>
+  <si>
+    <t>TBD… file write operation error</t>
   </si>
 </sst>
 </file>
@@ -4413,7 +4554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5044,12 +5185,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA97F52-1176-4A3B-A8AE-B9C95F6F82D0}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5153,7 +5294,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L66" si="0">F2*H2*K2</f>
+        <f t="shared" ref="L2:L37" si="0">F2*H2*K2</f>
         <v>1000</v>
       </c>
       <c r="M2" s="5" t="str">
@@ -5246,7 +5387,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
@@ -5272,149 +5413,1539 @@
         <v>1</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4:P66" si="2">F4*H4*O4</f>
+        <f t="shared" ref="P4:P37" si="2">F4*H4*O4</f>
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="str">
+        <f>Needs!C4</f>
+        <v>UN-003</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f>Needs!E4</f>
+        <v>As a user, I want to transfers the model number data from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f>Application!C5</f>
+        <v>AR-004</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f>Application!E5</f>
+        <v>The application shall include the model number in the data generated to populate the cost walk template</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="str">
+        <f>Needs!C5</f>
+        <v>UN-004</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f>Needs!E5</f>
+        <v>As a user, I want to transfers the build stage data from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="3">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f>Application!C6</f>
+        <v>AR-005</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f>Application!E6</f>
+        <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="str">
+        <f>Needs!C5</f>
+        <v>UN-004</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>Needs!E5</f>
+        <v>As a user, I want to transfers the build stage data from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K7" s="3">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f>Application!C7</f>
+        <v>AR-006</v>
+      </c>
+      <c r="N7" s="5" t="str">
+        <f>Application!E7</f>
+        <v>The application shall include the build stage in the data generated to populate the cost walk template</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="str">
+        <f>Needs!C6</f>
+        <v>UN-005</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>Needs!E6</f>
+        <v>As a user, I want to transfers the exchange rate from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K8" s="3">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f>Application!C8</f>
+        <v>AR-007</v>
+      </c>
+      <c r="N8" s="5" t="str">
+        <f>Application!E8</f>
+        <v>Given quote data from the CBOM data file is available, the application shall set the 'exchange rate' for the cost walk to the value identified by the label 'Exchange Rate'</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="str">
+        <f>Needs!C6</f>
+        <v>UN-005</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>Needs!E6</f>
+        <v>As a user, I want to transfers the exchange rate from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M9" s="5" t="str">
+        <f>Application!C9</f>
+        <v>AR-008</v>
+      </c>
+      <c r="N9" s="5" t="str">
+        <f>Application!E9</f>
+        <v>The application shall include the exchange rate in the data generated to populate the cost walk template</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="str">
+        <f>Needs!C7</f>
+        <v>UN-006</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>Needs!E7</f>
+        <v>As a user, I want to transfers the name of all the boards from the CBOM excel file to the cost walk template</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K10" s="3">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M10" s="5" t="str">
+        <f>Application!C10</f>
+        <v>AR-009</v>
+      </c>
+      <c r="N10" s="5" t="str">
+        <f>Application!E10</f>
+        <v>Given overall quote data from the CBOM data file is available, the application shall generate a list of board using the value in the cells identified by the label 'Description'</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="str">
+        <f>Needs!C7</f>
+        <v>UN-006</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>Needs!E7</f>
+        <v>As a user, I want to transfers the name of all the boards from the CBOM excel file to the cost walk template</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K11" s="3">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M11" s="5" t="str">
+        <f>Application!C11</f>
+        <v>AR-010</v>
+      </c>
+      <c r="N11" s="5" t="str">
+        <f>Application!E11</f>
+        <v>The application shall include a list of board names in the data file generated to populate the cost walk template</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="str">
+        <f>Needs!C8</f>
+        <v>UN-007</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>Needs!E8</f>
+        <v>As a user, I want to transfers the material cost of each board from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M12" s="5" t="str">
+        <f>Application!C12</f>
+        <v>AR-011</v>
+      </c>
+      <c r="N12" s="5" t="str">
+        <f>Application!E12</f>
+        <v>Given the data for overall quote is available, the application shall generate a list of board material cost using the value in the cells identified by the label 'BOM cost'</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="str">
+        <f>Needs!C8</f>
+        <v>UN-007</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>Needs!E8</f>
+        <v>As a user, I want to transfers the material cost of each board from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M13" s="5" t="str">
+        <f>Application!C13</f>
+        <v>AR-012</v>
+      </c>
+      <c r="N13" s="5" t="str">
+        <f>Application!E13</f>
+        <v>The application shall include the material cost of each board in the output data file used to populate the cost walk template.</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="str">
+        <f>Needs!C9</f>
+        <v>UN-008</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f>Needs!E9</f>
+        <v>As a user, I want to transfers the overhead cost of each board from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M14" s="5" t="str">
+        <f>Application!C14</f>
+        <v>AR-013</v>
+      </c>
+      <c r="N14" s="5" t="str">
+        <f>Application!E14</f>
+        <v>Given the data for overall quote is available, the application shall generate a list of board overhead cost using the value in the cells identified by the label 'OHP'</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="str">
+        <f>Needs!C9</f>
+        <v>UN-008</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f>Needs!E9</f>
+        <v>As a user, I want to transfers the overhead cost of each board from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M15" s="5" t="str">
+        <f>Application!C15</f>
+        <v>AR-014</v>
+      </c>
+      <c r="N15" s="5" t="str">
+        <f>Application!E15</f>
+        <v>The application shall include the overhead cost of each board in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="str">
+        <f>Needs!C10</f>
+        <v>UN-009</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f>Needs!E10</f>
+        <v>As a user, I want to select the cost data for a build stage to generation the cost walk</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="3">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M16" s="5" t="str">
+        <f>Application!C16</f>
+        <v>AR-015</v>
+      </c>
+      <c r="N16" s="5" t="str">
+        <f>Application!E16</f>
+        <v xml:space="preserve">Given the build stage and cost data for each board is avaiable, the application shall use the cost data for the selected build to generate the cost walk </v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="str">
+        <f>Needs!C11</f>
+        <v>UN-010</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f>Needs!E11</f>
+        <v>As a user, I want to transfer the designator data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="3">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M17" s="5" t="str">
+        <f>Application!C17</f>
+        <v>AR-016</v>
+      </c>
+      <c r="N17" s="5" t="str">
+        <f>Application!E17</f>
+        <v>Given the cost data of a board is available, the application shall use designator data as identified by the header label 'Designator'</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="str">
+        <f>Needs!C11</f>
+        <v>UN-010</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f>Needs!E11</f>
+        <v>As a user, I want to transfer the designator data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="3">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M18" s="5" t="str">
+        <f>Application!C18</f>
+        <v>AR-017</v>
+      </c>
+      <c r="N18" s="5" t="str">
+        <f>Application!E18</f>
+        <v>The application shall include the designator name of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="str">
+        <f>Needs!C12</f>
+        <v>UN-011</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f>Needs!E12</f>
+        <v>As a user, I want to transfer the component data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H19" s="3">
+        <v>10</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="3">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M19" s="5" t="str">
+        <f>Application!C19</f>
+        <v>AR-018</v>
+      </c>
+      <c r="N19" s="5" t="str">
+        <f>Application!E19</f>
+        <v>Given the cost data of a board is available, the application shall use designator data as identified by the header label 'Component'</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="str">
+        <f>Needs!C12</f>
+        <v>UN-011</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>Needs!E12</f>
+        <v>As a user, I want to transfer the component data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="3">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M20" s="5" t="str">
+        <f>Application!C20</f>
+        <v>AR-019</v>
+      </c>
+      <c r="N20" s="5" t="str">
+        <f>Application!E20</f>
+        <v>The application shall include the component type of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="str">
+        <f>Needs!C13</f>
+        <v>UN-012</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>Needs!E13</f>
+        <v>As a user, I want to transfer the description data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="3">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f>Application!C21</f>
+        <v>AR-020</v>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f>Application!E21</f>
+        <v xml:space="preserve">When identifying the description of an item on the CBOM, the application shall use the data identified by the header label 'Description' </v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="str">
+        <f>Needs!C13</f>
+        <v>UN-012</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>Needs!E13</f>
+        <v>As a user, I want to transfer the description data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f>Application!C22</f>
+        <v>AR-021</v>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>Application!E22</f>
+        <v>The application shall include the description of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="str">
+        <f>Needs!C14</f>
+        <v>UN-013</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>Needs!E14</f>
+        <v>As a user, I want to transfer the manufacturer data for each item from the CBOM excel file to the cost walk template</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="3">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f>Application!C23</f>
+        <v>AR-022</v>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>Application!E23</f>
+        <v xml:space="preserve">When identifying the manufacturer of an item on the CBOM, the application shall use the data identified by the header label 'Manufacturer' </v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="str">
+        <f>Needs!C14</f>
+        <v>UN-013</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>Needs!E14</f>
+        <v>As a user, I want to transfer the manufacturer data for each item from the CBOM excel file to the cost walk template</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="3">
+        <v>10</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f>Application!C24</f>
+        <v>AR-023</v>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>Application!E24</f>
+        <v>The application shall include the manufacturer of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="str">
+        <f>Needs!C15</f>
+        <v>UN-014</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>Needs!E15</f>
+        <v>As a user, I want to transfer the part number data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H25" s="3">
+        <v>10</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f>Application!C25</f>
+        <v>AR-024</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>Application!E25</f>
+        <v xml:space="preserve">When identifying the part number of an item on the CBOM, the application shall use the data identified by the header label 'Part Number' </v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="str">
+        <f>Needs!C15</f>
+        <v>UN-014</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>Needs!E15</f>
+        <v>As a user, I want to transfer the part number data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="3">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M26" s="5" t="str">
+        <f>Application!C26</f>
+        <v>AR-025</v>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>Application!E26</f>
+        <v>The application shall include the part number of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="str">
+        <f>Needs!C16</f>
+        <v>UN-015</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>Needs!E16</f>
+        <v>As a user, I want to transfer the quantity data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F27" s="3">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H27" s="3">
+        <v>10</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="3">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f>Application!C27</f>
+        <v>AR-026</v>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>Application!E27</f>
+        <v xml:space="preserve">When identifying the quantity of an item on the CBOM, the application shall use the data identified by the header label 'Quantity' </v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="str">
+        <f>Needs!C16</f>
+        <v>UN-015</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f>Needs!E16</f>
+        <v>As a user, I want to transfer the quantity data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28" s="3">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H28" s="3">
+        <v>10</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>10</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f>Application!C28</f>
+        <v>AR-027</v>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>Application!E28</f>
+        <v>The application shall include the quantity of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="str">
+        <f>Needs!C17</f>
+        <v>UN-016</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f>Needs!E17</f>
+        <v>As a user, I want to transfer the unit price data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H29" s="3">
+        <v>10</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M29" s="5" t="str">
+        <f>Application!C29</f>
+        <v>AR-028</v>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>Application!E29</f>
+        <v xml:space="preserve">When identifying the unit price of an item on the CBOM, the application shall use the data identified by the header label 'U/P' </v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="str">
+        <f>Needs!C17</f>
+        <v>UN-016</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>Needs!E17</f>
+        <v>As a user, I want to transfer the unit price data for each item from the CBOM file to the cost walk template</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F30" s="3">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10</v>
+      </c>
+      <c r="K30" s="3">
+        <v>10</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M30" s="5" t="str">
+        <f>Application!C30</f>
+        <v>AR-029</v>
+      </c>
+      <c r="N30" s="5" t="str">
+        <f>Application!E30</f>
+        <v>The application shall include the unit price of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="str">
+        <f>Needs!C18</f>
+        <v>UN-017</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f>Needs!E18</f>
+        <v>As a user, I want to remove items with zero quantity from the cost walk analysis</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="3">
+        <v>10</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M31" s="5" t="str">
+        <f>Application!C31</f>
+        <v>AR-030</v>
+      </c>
+      <c r="N31" s="5" t="str">
+        <f>Application!E31</f>
+        <v>Given the bill of material cost data for a board is available, the application shall shall remove all components with zero quantity</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="str">
+        <f>Needs!C19</f>
+        <v>UN-018</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>Needs!E19</f>
+        <v>As a user, I want to separate each item to a separate row on the cost walk template</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H32" s="3">
+        <v>10</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K32" s="3">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="M32" s="5" t="str">
+        <f>Application!C32</f>
+        <v>AR-031</v>
+      </c>
+      <c r="N32" s="5" t="str">
+        <f>Application!E32</f>
+        <v>Given the bill of material cost data for a board is available, the application shall separate each designator to an individual line</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="str">
+        <f>Needs!C20</f>
+        <v>UN-019</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f>Needs!E20</f>
+        <v>As a user, I want to add the name of the board to each item on the cost walk template</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H33" s="3">
+        <v>10</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="K33" s="3">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M33" s="5" t="str">
+        <f>Application!C33</f>
+        <v>AR-032</v>
+      </c>
+      <c r="N33" s="5" t="str">
+        <f>Application!E33</f>
+        <v>The application shall include the board name of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="69" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="str">
-        <f>Needs!C4</f>
-        <v>UN-003</v>
+        <f>Needs!C21</f>
+        <v>UN-020</v>
       </c>
       <c r="B34" s="5" t="str">
-        <f>Needs!E4</f>
-        <v>As a user, I want to transfers the model number data from the CBOM file to the cost walk template</v>
+        <f>Needs!E21</f>
+        <v>As a user, I want to add the feature name to each item on the cost walk template</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>435</v>
+        <v>294</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="F34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>436</v>
+        <v>350</v>
       </c>
       <c r="H34" s="3">
         <v>10</v>
@@ -5426,47 +6957,47 @@
       </c>
       <c r="L34" s="3">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M34" s="5" t="str">
-        <f>Application!C5</f>
-        <v>AR-004</v>
+        <f>Application!C34</f>
+        <v>AR-033</v>
       </c>
       <c r="N34" s="5" t="str">
-        <f>Application!E5</f>
-        <v>The application shall include the model number in the data generated to populate the cost walk template</v>
+        <f>Application!E34</f>
+        <v>The application shall include an empty value for feature name of each component in the data file generated to populate the cost walk template.</v>
       </c>
       <c r="O34" s="3">
         <v>1</v>
       </c>
       <c r="P34" s="3">
         <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="str">
+        <f>Needs!C22</f>
+        <v>UN-030</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f>Needs!E22</f>
+        <v>As a user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="str">
-        <f>Needs!C5</f>
-        <v>UN-004</v>
-      </c>
-      <c r="B35" s="5" t="str">
-        <f>Needs!E5</f>
-        <v>As a user, I want to transfers the build stage data from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
       <c r="F35" s="3">
         <v>5</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="H35" s="3">
         <v>10</v>
@@ -5481,12 +7012,12 @@
         <v>500</v>
       </c>
       <c r="M35" s="5" t="str">
-        <f>Application!C6</f>
-        <v>AR-005</v>
+        <f>Application!C35</f>
+        <v>AR-034</v>
       </c>
       <c r="N35" s="5" t="str">
-        <f>Application!E6</f>
-        <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
+        <f>Application!E35</f>
+        <v>The file name format for output file generating for CBOM data transfer to the cost walk template shall be "PCBA_CW_&lt;Date&gt;_&lt;Time&gt;_&lt;SKU&gt;_&lt;Build&gt;_&lt;PCBA Name&gt;". Where &lt;Date&gt; is in the format YYMMDD, &lt;Time&gt; is in the 24hr format HHMMSS, &lt;SKU&gt; is the company SKU, &lt;Build&gt; is the CBOM build stage, and &lt;PCBA Name&gt; is the circuit board name</v>
       </c>
       <c r="O35" s="3">
         <v>1</v>
@@ -5496,29 +7027,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="str">
-        <f>Needs!C5</f>
-        <v>UN-004</v>
+        <f>Needs!C22</f>
+        <v>UN-030</v>
       </c>
       <c r="B36" s="5" t="str">
-        <f>Needs!E5</f>
-        <v>As a user, I want to transfers the build stage data from the CBOM file to the cost walk template</v>
+        <f>Needs!E22</f>
+        <v>As a user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>192</v>
+        <v>495</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>439</v>
+        <v>50</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
       <c r="F36" s="3">
         <v>5</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="H36" s="3">
         <v>10</v>
@@ -5533,12 +7064,12 @@
         <v>500</v>
       </c>
       <c r="M36" s="5" t="str">
-        <f>Application!C7</f>
-        <v>AR-006</v>
+        <f>Application!C36</f>
+        <v>AR-035</v>
       </c>
       <c r="N36" s="5" t="str">
-        <f>Application!E7</f>
-        <v>The application shall include the build stage in the data generated to populate the cost walk template</v>
+        <f>Application!E36</f>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
@@ -5548,29 +7079,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="str">
-        <f>Needs!C6</f>
-        <v>UN-005</v>
+        <f>Needs!C22</f>
+        <v>UN-030</v>
       </c>
       <c r="B37" s="5" t="str">
-        <f>Needs!E6</f>
-        <v>As a user, I want to transfers the exchange rate from the CBOM file to the cost walk template</v>
+        <f>Needs!E22</f>
+        <v>As a user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>193</v>
+        <v>496</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>446</v>
+        <v>50</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>447</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="H37" s="3">
         <v>10</v>
@@ -5582,1532 +7113,26 @@
       </c>
       <c r="L37" s="3">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M37" s="5" t="str">
-        <f>Application!C8</f>
-        <v>AR-007</v>
+        <f>Application!C37</f>
+        <v>AR-036</v>
       </c>
       <c r="N37" s="5" t="str">
-        <f>Application!E8</f>
-        <v>Given quote data from the CBOM data file is available, the application shall set the 'exchange rate' for the cost walk to the value identified by the label 'Exchange Rate'</v>
+        <f>Application!E37</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
       </c>
       <c r="O37" s="3">
         <v>1</v>
       </c>
       <c r="P37" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="str">
-        <f>Needs!C6</f>
-        <v>UN-005</v>
-      </c>
-      <c r="B38" s="5" t="str">
-        <f>Needs!E6</f>
-        <v>As a user, I want to transfers the exchange rate from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F38" s="3">
-        <v>10</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H38" s="3">
-        <v>10</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
-        <v>10</v>
-      </c>
-      <c r="L38" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M38" s="5" t="str">
-        <f>Application!C9</f>
-        <v>AR-008</v>
-      </c>
-      <c r="N38" s="5" t="str">
-        <f>Application!E9</f>
-        <v>The application shall include the exchange rate in the data generated to populate the cost walk template</v>
-      </c>
-      <c r="O38" s="3">
-        <v>1</v>
-      </c>
-      <c r="P38" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="str">
-        <f>Needs!C7</f>
-        <v>UN-006</v>
-      </c>
-      <c r="B39" s="5" t="str">
-        <f>Needs!E7</f>
-        <v>As a user, I want to transfers the name of all the boards from the CBOM excel file to the cost walk template</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="3">
-        <v>10</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="H39" s="3">
-        <v>10</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3">
-        <v>10</v>
-      </c>
-      <c r="L39" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M39" s="5" t="str">
-        <f>Application!C10</f>
-        <v>AR-009</v>
-      </c>
-      <c r="N39" s="5" t="str">
-        <f>Application!E10</f>
-        <v>Given overall quote data from the CBOM data file is available, the application shall generate a list of board using the value in the cells identified by the label 'Description'</v>
-      </c>
-      <c r="O39" s="3">
-        <v>1</v>
-      </c>
-      <c r="P39" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="str">
-        <f>Needs!C7</f>
-        <v>UN-006</v>
-      </c>
-      <c r="B40" s="5" t="str">
-        <f>Needs!E7</f>
-        <v>As a user, I want to transfers the name of all the boards from the CBOM excel file to the cost walk template</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="3">
-        <v>10</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="H40" s="3">
-        <v>10</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3">
-        <v>10</v>
-      </c>
-      <c r="L40" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M40" s="5" t="str">
-        <f>Application!C11</f>
-        <v>AR-010</v>
-      </c>
-      <c r="N40" s="5" t="str">
-        <f>Application!E11</f>
-        <v>The application shall include a list of board names in the data file generated to populate the cost walk template</v>
-      </c>
-      <c r="O40" s="3">
-        <v>1</v>
-      </c>
-      <c r="P40" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="str">
-        <f>Needs!C8</f>
-        <v>UN-007</v>
-      </c>
-      <c r="B41" s="5" t="str">
-        <f>Needs!E8</f>
-        <v>As a user, I want to transfers the material cost of each board from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="H41" s="3">
-        <v>10</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3">
-        <v>10</v>
-      </c>
-      <c r="L41" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="M41" s="5" t="str">
-        <f>Application!C12</f>
-        <v>AR-011</v>
-      </c>
-      <c r="N41" s="5" t="str">
-        <f>Application!E12</f>
-        <v>Given the data for overall quote is available, the application shall generate a list of board material cost using the value in the cells identified by the label 'BOM cost'</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1</v>
-      </c>
-      <c r="P41" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="str">
-        <f>Needs!C8</f>
-        <v>UN-007</v>
-      </c>
-      <c r="B42" s="5" t="str">
-        <f>Needs!E8</f>
-        <v>As a user, I want to transfers the material cost of each board from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="H42" s="3">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3">
-        <v>10</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="M42" s="5" t="str">
-        <f>Application!C13</f>
-        <v>AR-012</v>
-      </c>
-      <c r="N42" s="5" t="str">
-        <f>Application!E13</f>
-        <v>The application shall include the material cost of each board in the output data file used to populate the cost walk template.</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1</v>
-      </c>
-      <c r="P42" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="str">
-        <f>Needs!C9</f>
-        <v>UN-008</v>
-      </c>
-      <c r="B43" s="5" t="str">
-        <f>Needs!E9</f>
-        <v>As a user, I want to transfers the overhead cost of each board from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F43" s="3">
-        <v>10</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H43" s="3">
-        <v>10</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3">
-        <v>10</v>
-      </c>
-      <c r="L43" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M43" s="5" t="str">
-        <f>Application!C14</f>
-        <v>AR-013</v>
-      </c>
-      <c r="N43" s="5" t="str">
-        <f>Application!E14</f>
-        <v>Given the data for overall quote is available, the application shall generate a list of board overhead cost using the value in the cells identified by the label 'OHP'</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1</v>
-      </c>
-      <c r="P43" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="str">
-        <f>Needs!C9</f>
-        <v>UN-008</v>
-      </c>
-      <c r="B44" s="5" t="str">
-        <f>Needs!E9</f>
-        <v>As a user, I want to transfers the overhead cost of each board from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F44" s="3">
-        <v>10</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H44" s="3">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3">
-        <v>10</v>
-      </c>
-      <c r="L44" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M44" s="5" t="str">
-        <f>Application!C15</f>
-        <v>AR-014</v>
-      </c>
-      <c r="N44" s="5" t="str">
-        <f>Application!E15</f>
-        <v>The application shall include the overhead cost of each board in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1</v>
-      </c>
-      <c r="P44" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="str">
-        <f>Needs!C10</f>
-        <v>UN-009</v>
-      </c>
-      <c r="B45" s="5" t="str">
-        <f>Needs!E10</f>
-        <v>As a user, I want to select the cost data for a build stage to generation the cost walk</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="3">
-        <v>10</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="H45" s="3">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3">
-        <v>10</v>
-      </c>
-      <c r="L45" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M45" s="5" t="str">
-        <f>Application!C16</f>
-        <v>AR-015</v>
-      </c>
-      <c r="N45" s="5" t="str">
-        <f>Application!E16</f>
-        <v xml:space="preserve">Given the build stage and cost data for each board is avaiable, the application shall use the cost data for the selected build to generate the cost walk </v>
-      </c>
-      <c r="O45" s="3">
-        <v>1</v>
-      </c>
-      <c r="P45" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="str">
-        <f>Needs!C11</f>
-        <v>UN-010</v>
-      </c>
-      <c r="B46" s="5" t="str">
-        <f>Needs!E11</f>
-        <v>As a user, I want to transfer the designator data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F46" s="3">
-        <v>10</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="H46" s="3">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3">
-        <v>10</v>
-      </c>
-      <c r="L46" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M46" s="5" t="str">
-        <f>Application!C17</f>
-        <v>AR-016</v>
-      </c>
-      <c r="N46" s="5" t="str">
-        <f>Application!E17</f>
-        <v>Given the cost data of a board is available, the application shall use designator data as identified by the header label 'Designator'</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1</v>
-      </c>
-      <c r="P46" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="str">
-        <f>Needs!C11</f>
-        <v>UN-010</v>
-      </c>
-      <c r="B47" s="5" t="str">
-        <f>Needs!E11</f>
-        <v>As a user, I want to transfer the designator data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F47" s="3">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="H47" s="3">
-        <v>10</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3">
-        <v>10</v>
-      </c>
-      <c r="L47" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M47" s="5" t="str">
-        <f>Application!C18</f>
-        <v>AR-017</v>
-      </c>
-      <c r="N47" s="5" t="str">
-        <f>Application!E18</f>
-        <v>The application shall include the designator name of each component in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1</v>
-      </c>
-      <c r="P47" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="str">
-        <f>Needs!C12</f>
-        <v>UN-011</v>
-      </c>
-      <c r="B48" s="5" t="str">
-        <f>Needs!E12</f>
-        <v>As a user, I want to transfer the component data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="H48" s="3">
-        <v>10</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3">
-        <v>10</v>
-      </c>
-      <c r="L48" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M48" s="5" t="str">
-        <f>Application!C19</f>
-        <v>AR-018</v>
-      </c>
-      <c r="N48" s="5" t="str">
-        <f>Application!E19</f>
-        <v>Given the cost data of a board is available, the application shall use designator data as identified by the header label 'Component'</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1</v>
-      </c>
-      <c r="P48" s="3">
-        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="str">
-        <f>Needs!C12</f>
-        <v>UN-011</v>
-      </c>
-      <c r="B49" s="5" t="str">
-        <f>Needs!E12</f>
-        <v>As a user, I want to transfer the component data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H49" s="3">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3">
-        <v>10</v>
-      </c>
-      <c r="L49" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M49" s="5" t="str">
-        <f>Application!C20</f>
-        <v>AR-019</v>
-      </c>
-      <c r="N49" s="5" t="str">
-        <f>Application!E20</f>
-        <v>The application shall include the component type of each component in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1</v>
-      </c>
-      <c r="P49" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="str">
-        <f>Needs!C13</f>
-        <v>UN-012</v>
-      </c>
-      <c r="B50" s="5" t="str">
-        <f>Needs!E13</f>
-        <v>As a user, I want to transfer the description data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F50" s="3">
-        <v>5</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="H50" s="3">
-        <v>10</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3">
-        <v>10</v>
-      </c>
-      <c r="L50" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M50" s="5" t="str">
-        <f>Application!C21</f>
-        <v>AR-020</v>
-      </c>
-      <c r="N50" s="5" t="str">
-        <f>Application!E21</f>
-        <v xml:space="preserve">When identifying the description of an item on the CBOM, the application shall use the data identified by the header label 'Description' </v>
-      </c>
-      <c r="O50" s="3">
-        <v>1</v>
-      </c>
-      <c r="P50" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="str">
-        <f>Needs!C13</f>
-        <v>UN-012</v>
-      </c>
-      <c r="B51" s="5" t="str">
-        <f>Needs!E13</f>
-        <v>As a user, I want to transfer the description data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F51" s="3">
-        <v>5</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="H51" s="3">
-        <v>10</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3">
-        <v>10</v>
-      </c>
-      <c r="L51" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M51" s="5" t="str">
-        <f>Application!C22</f>
-        <v>AR-021</v>
-      </c>
-      <c r="N51" s="5" t="str">
-        <f>Application!E22</f>
-        <v>The application shall include the description of each component in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O51" s="3">
-        <v>1</v>
-      </c>
-      <c r="P51" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="str">
-        <f>Needs!C14</f>
-        <v>UN-013</v>
-      </c>
-      <c r="B52" s="5" t="str">
-        <f>Needs!E14</f>
-        <v>As a user, I want to transfer the manufacturer data for each item from the CBOM excel file to the cost walk template</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="H52" s="3">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3">
-        <v>10</v>
-      </c>
-      <c r="L52" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M52" s="5" t="str">
-        <f>Application!C23</f>
-        <v>AR-022</v>
-      </c>
-      <c r="N52" s="5" t="str">
-        <f>Application!E23</f>
-        <v xml:space="preserve">When identifying the manufacturer of an item on the CBOM, the application shall use the data identified by the header label 'Manufacturer' </v>
-      </c>
-      <c r="O52" s="3">
-        <v>1</v>
-      </c>
-      <c r="P52" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="str">
-        <f>Needs!C14</f>
-        <v>UN-013</v>
-      </c>
-      <c r="B53" s="5" t="str">
-        <f>Needs!E14</f>
-        <v>As a user, I want to transfer the manufacturer data for each item from the CBOM excel file to the cost walk template</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F53" s="3">
-        <v>5</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="H53" s="3">
-        <v>10</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
-        <v>10</v>
-      </c>
-      <c r="L53" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M53" s="5" t="str">
-        <f>Application!C24</f>
-        <v>AR-023</v>
-      </c>
-      <c r="N53" s="5" t="str">
-        <f>Application!E24</f>
-        <v>The application shall include the manufacturer of each component in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O53" s="3">
-        <v>1</v>
-      </c>
-      <c r="P53" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="str">
-        <f>Needs!C15</f>
-        <v>UN-014</v>
-      </c>
-      <c r="B54" s="5" t="str">
-        <f>Needs!E15</f>
-        <v>As a user, I want to transfer the part number data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="H54" s="3">
-        <v>10</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3">
-        <v>10</v>
-      </c>
-      <c r="L54" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M54" s="5" t="str">
-        <f>Application!C25</f>
-        <v>AR-024</v>
-      </c>
-      <c r="N54" s="5" t="str">
-        <f>Application!E25</f>
-        <v xml:space="preserve">When identifying the part number of an item on the CBOM, the application shall use the data identified by the header label 'Part Number' </v>
-      </c>
-      <c r="O54" s="3">
-        <v>1</v>
-      </c>
-      <c r="P54" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="str">
-        <f>Needs!C15</f>
-        <v>UN-014</v>
-      </c>
-      <c r="B55" s="5" t="str">
-        <f>Needs!E15</f>
-        <v>As a user, I want to transfer the part number data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F55" s="3">
-        <v>5</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="H55" s="3">
-        <v>10</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3">
-        <v>10</v>
-      </c>
-      <c r="L55" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M55" s="5" t="str">
-        <f>Application!C26</f>
-        <v>AR-025</v>
-      </c>
-      <c r="N55" s="5" t="str">
-        <f>Application!E26</f>
-        <v>The application shall include the part number of each component in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O55" s="3">
-        <v>1</v>
-      </c>
-      <c r="P55" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="str">
-        <f>Needs!C16</f>
-        <v>UN-015</v>
-      </c>
-      <c r="B56" s="5" t="str">
-        <f>Needs!E16</f>
-        <v>As a user, I want to transfer the quantity data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F56" s="3">
-        <v>10</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="H56" s="3">
-        <v>10</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
-        <v>10</v>
-      </c>
-      <c r="L56" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M56" s="5" t="str">
-        <f>Application!C27</f>
-        <v>AR-026</v>
-      </c>
-      <c r="N56" s="5" t="str">
-        <f>Application!E27</f>
-        <v xml:space="preserve">When identifying the quantity of an item on the CBOM, the application shall use the data identified by the header label 'Quantity' </v>
-      </c>
-      <c r="O56" s="3">
-        <v>1</v>
-      </c>
-      <c r="P56" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="str">
-        <f>Needs!C16</f>
-        <v>UN-015</v>
-      </c>
-      <c r="B57" s="5" t="str">
-        <f>Needs!E16</f>
-        <v>As a user, I want to transfer the quantity data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F57" s="3">
-        <v>10</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H57" s="3">
-        <v>10</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
-        <v>10</v>
-      </c>
-      <c r="L57" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M57" s="5" t="str">
-        <f>Application!C28</f>
-        <v>AR-027</v>
-      </c>
-      <c r="N57" s="5" t="str">
-        <f>Application!E28</f>
-        <v>The application shall include the quantity of each component in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1</v>
-      </c>
-      <c r="P57" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="str">
-        <f>Needs!C17</f>
-        <v>UN-016</v>
-      </c>
-      <c r="B58" s="5" t="str">
-        <f>Needs!E17</f>
-        <v>As a user, I want to transfer the unit price data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F58" s="3">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="H58" s="3">
-        <v>10</v>
-      </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3">
-        <v>10</v>
-      </c>
-      <c r="L58" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M58" s="5" t="str">
-        <f>Application!C29</f>
-        <v>AR-028</v>
-      </c>
-      <c r="N58" s="5" t="str">
-        <f>Application!E29</f>
-        <v xml:space="preserve">When identifying the unit price of an item on the CBOM, the application shall use the data identified by the header label 'U/P' </v>
-      </c>
-      <c r="O58" s="3">
-        <v>1</v>
-      </c>
-      <c r="P58" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="str">
-        <f>Needs!C17</f>
-        <v>UN-016</v>
-      </c>
-      <c r="B59" s="5" t="str">
-        <f>Needs!E17</f>
-        <v>As a user, I want to transfer the unit price data for each item from the CBOM file to the cost walk template</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F59" s="3">
-        <v>10</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H59" s="3">
-        <v>10</v>
-      </c>
-      <c r="K59" s="3">
-        <v>10</v>
-      </c>
-      <c r="L59" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M59" s="5" t="str">
-        <f>Application!C30</f>
-        <v>AR-029</v>
-      </c>
-      <c r="N59" s="5" t="str">
-        <f>Application!E30</f>
-        <v>The application shall include the unit price of each component in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1</v>
-      </c>
-      <c r="P59" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="str">
-        <f>Needs!C18</f>
-        <v>UN-017</v>
-      </c>
-      <c r="B60" s="5" t="str">
-        <f>Needs!E18</f>
-        <v>As a user, I want to remove items with zero quantity from the cost walk analysis</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H60" s="3">
-        <v>10</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3">
-        <v>10</v>
-      </c>
-      <c r="L60" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="M60" s="5" t="str">
-        <f>Application!C31</f>
-        <v>AR-030</v>
-      </c>
-      <c r="N60" s="5" t="str">
-        <f>Application!E31</f>
-        <v>Given the bill of material cost data for a board is available, the application shall shall remove all components with zero quantity</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1</v>
-      </c>
-      <c r="P60" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="str">
-        <f>Needs!C19</f>
-        <v>UN-018</v>
-      </c>
-      <c r="B61" s="5" t="str">
-        <f>Needs!E19</f>
-        <v>As a user, I want to separate each item to a separate row on the cost walk template</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H61" s="3">
-        <v>10</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3">
-        <v>10</v>
-      </c>
-      <c r="L61" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M61" s="5" t="str">
-        <f>Application!C32</f>
-        <v>AR-031</v>
-      </c>
-      <c r="N61" s="5" t="str">
-        <f>Application!E32</f>
-        <v>Given the bill of material cost data for a board is available, the application shall separate each designator to an individual line</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1</v>
-      </c>
-      <c r="P61" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="str">
-        <f>Needs!C20</f>
-        <v>UN-019</v>
-      </c>
-      <c r="B62" s="5" t="str">
-        <f>Needs!E20</f>
-        <v>As a user, I want to add the name of the board to each item on the cost walk template</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3">
-        <v>10</v>
-      </c>
-      <c r="L62" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M62" s="5" t="str">
-        <f>Application!C33</f>
-        <v>AR-032</v>
-      </c>
-      <c r="N62" s="5" t="str">
-        <f>Application!E33</f>
-        <v>The application shall include the board name of each component in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1</v>
-      </c>
-      <c r="P62" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="69" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="str">
-        <f>Needs!C21</f>
-        <v>UN-020</v>
-      </c>
-      <c r="B63" s="5" t="str">
-        <f>Needs!E21</f>
-        <v>As a user, I want to add the feature name to each item on the cost walk template</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H63" s="3">
-        <v>10</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3">
-        <v>10</v>
-      </c>
-      <c r="L63" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="M63" s="5" t="str">
-        <f>Application!C34</f>
-        <v>AR-033</v>
-      </c>
-      <c r="N63" s="5" t="str">
-        <f>Application!E34</f>
-        <v>The application shall include an empty value for feature name of each component in the data file generated to populate the cost walk template.</v>
-      </c>
-      <c r="O63" s="3">
-        <v>1</v>
-      </c>
-      <c r="P63" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="str">
-        <f>Needs!C22</f>
-        <v>UN-030</v>
-      </c>
-      <c r="B64" s="5" t="str">
-        <f>Needs!E22</f>
-        <v>As a user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="3">
-        <v>5</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="H64" s="3">
-        <v>10</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3">
-        <v>10</v>
-      </c>
-      <c r="L64" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M64" s="5" t="str">
-        <f>Application!C35</f>
-        <v>AR-034</v>
-      </c>
-      <c r="N64" s="5" t="str">
-        <f>Application!E35</f>
-        <v>The file name format for output file generating for CBOM data transfer to the cost walk template shall be "PCBA_CW_&lt;Date&gt;_&lt;Time&gt;_&lt;SKU&gt;_&lt;Build&gt;_&lt;PCBA Name&gt;". Where &lt;Date&gt; is in the format YYMMDD, &lt;Time&gt; is in the 24hr format HHMMSS, &lt;SKU&gt; is the company SKU, &lt;Build&gt; is the CBOM build stage, and &lt;PCBA Name&gt; is the circuit board name</v>
-      </c>
-      <c r="O64" s="3">
-        <v>1</v>
-      </c>
-      <c r="P64" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="str">
-        <f>Needs!C22</f>
-        <v>UN-030</v>
-      </c>
-      <c r="B65" s="5" t="str">
-        <f>Needs!E22</f>
-        <v>As a user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="3">
-        <v>5</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="H65" s="3">
-        <v>10</v>
-      </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3">
-        <v>10</v>
-      </c>
-      <c r="L65" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M65" s="5" t="str">
-        <f>Application!C36</f>
-        <v>AR-035</v>
-      </c>
-      <c r="N65" s="5" t="str">
-        <f>Application!E36</f>
-        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
-      </c>
-      <c r="O65" s="3">
-        <v>1</v>
-      </c>
-      <c r="P65" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="str">
-        <f>Needs!C22</f>
-        <v>UN-030</v>
-      </c>
-      <c r="B66" s="5" t="str">
-        <f>Needs!E22</f>
-        <v>As a user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="H66" s="3">
-        <v>10</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3">
-        <v>10</v>
-      </c>
-      <c r="L66" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M66" s="5" t="str">
-        <f>Application!C37</f>
-        <v>AR-036</v>
-      </c>
-      <c r="N66" s="5" t="str">
-        <f>Application!E37</f>
-        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1</v>
-      </c>
-      <c r="P66" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P63" xr:uid="{5FA97F52-1176-4A3B-A8AE-B9C95F6F82D0}"/>
+  <autoFilter ref="A1:P34" xr:uid="{5FA97F52-1176-4A3B-A8AE-B9C95F6F82D0}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -7118,9 +7143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC926B3F-45E1-4A07-86DE-FEDC18CC146B}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7169,10 +7194,10 @@
         <v>162</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7221,11 +7246,11 @@
     </row>
     <row r="5" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="str">
-        <f>nFMEA!A34</f>
+        <f>nFMEA!A5</f>
         <v>UN-003</v>
       </c>
       <c r="B5" s="5" t="str">
-        <f>nFMEA!B34</f>
+        <f>nFMEA!B5</f>
         <v>As a user, I want to transfers the model number data from the CBOM file to the cost walk template</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -7243,11 +7268,11 @@
     </row>
     <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="str">
-        <f>nFMEA!A35</f>
+        <f>nFMEA!A6</f>
         <v>UN-004</v>
       </c>
       <c r="B6" s="5" t="str">
-        <f>nFMEA!B35</f>
+        <f>nFMEA!B6</f>
         <v>As a user, I want to transfers the build stage data from the CBOM file to the cost walk template</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7265,11 +7290,11 @@
     </row>
     <row r="7" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="str">
-        <f>nFMEA!A36</f>
+        <f>nFMEA!A7</f>
         <v>UN-004</v>
       </c>
       <c r="B7" s="5" t="str">
-        <f>nFMEA!B36</f>
+        <f>nFMEA!B7</f>
         <v>As a user, I want to transfers the build stage data from the CBOM file to the cost walk template</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -7287,11 +7312,11 @@
     </row>
     <row r="8" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="str">
-        <f>nFMEA!A37</f>
+        <f>nFMEA!A8</f>
         <v>UN-005</v>
       </c>
       <c r="B8" s="5" t="str">
-        <f>nFMEA!B37</f>
+        <f>nFMEA!B8</f>
         <v>As a user, I want to transfers the exchange rate from the CBOM file to the cost walk template</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -7309,11 +7334,11 @@
     </row>
     <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="str">
-        <f>nFMEA!A38</f>
+        <f>nFMEA!A9</f>
         <v>UN-005</v>
       </c>
       <c r="B9" s="5" t="str">
-        <f>nFMEA!B38</f>
+        <f>nFMEA!B9</f>
         <v>As a user, I want to transfers the exchange rate from the CBOM file to the cost walk template</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -7331,11 +7356,11 @@
     </row>
     <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="str">
-        <f>nFMEA!A39</f>
+        <f>nFMEA!A10</f>
         <v>UN-006</v>
       </c>
       <c r="B10" s="5" t="str">
-        <f>nFMEA!B39</f>
+        <f>nFMEA!B10</f>
         <v>As a user, I want to transfers the name of all the boards from the CBOM excel file to the cost walk template</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -7353,11 +7378,11 @@
     </row>
     <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="str">
-        <f>nFMEA!A40</f>
+        <f>nFMEA!A11</f>
         <v>UN-006</v>
       </c>
       <c r="B11" s="5" t="str">
-        <f>nFMEA!B40</f>
+        <f>nFMEA!B11</f>
         <v>As a user, I want to transfers the name of all the boards from the CBOM excel file to the cost walk template</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -7375,11 +7400,11 @@
     </row>
     <row r="12" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="str">
-        <f>nFMEA!A41</f>
+        <f>nFMEA!A12</f>
         <v>UN-007</v>
       </c>
       <c r="B12" s="5" t="str">
-        <f>nFMEA!B41</f>
+        <f>nFMEA!B12</f>
         <v>As a user, I want to transfers the material cost of each board from the CBOM file to the cost walk template</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -7397,11 +7422,11 @@
     </row>
     <row r="13" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="str">
-        <f>nFMEA!A42</f>
+        <f>nFMEA!A13</f>
         <v>UN-007</v>
       </c>
       <c r="B13" s="5" t="str">
-        <f>nFMEA!B42</f>
+        <f>nFMEA!B13</f>
         <v>As a user, I want to transfers the material cost of each board from the CBOM file to the cost walk template</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -7419,11 +7444,11 @@
     </row>
     <row r="14" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="str">
-        <f>nFMEA!A43</f>
+        <f>nFMEA!A14</f>
         <v>UN-008</v>
       </c>
       <c r="B14" s="5" t="str">
-        <f>nFMEA!B43</f>
+        <f>nFMEA!B14</f>
         <v>As a user, I want to transfers the overhead cost of each board from the CBOM file to the cost walk template</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -7441,11 +7466,11 @@
     </row>
     <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
-        <f>nFMEA!A44</f>
+        <f>nFMEA!A15</f>
         <v>UN-008</v>
       </c>
       <c r="B15" s="5" t="str">
-        <f>nFMEA!B44</f>
+        <f>nFMEA!B15</f>
         <v>As a user, I want to transfers the overhead cost of each board from the CBOM file to the cost walk template</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -7463,11 +7488,11 @@
     </row>
     <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
-        <f>nFMEA!A45</f>
+        <f>nFMEA!A16</f>
         <v>UN-009</v>
       </c>
       <c r="B16" s="5" t="str">
-        <f>nFMEA!B45</f>
+        <f>nFMEA!B16</f>
         <v>As a user, I want to select the cost data for a build stage to generation the cost walk</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -7485,11 +7510,11 @@
     </row>
     <row r="17" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
-        <f>nFMEA!A46</f>
+        <f>nFMEA!A17</f>
         <v>UN-010</v>
       </c>
       <c r="B17" s="5" t="str">
-        <f>nFMEA!B46</f>
+        <f>nFMEA!B17</f>
         <v>As a user, I want to transfer the designator data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -7507,11 +7532,11 @@
     </row>
     <row r="18" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="str">
-        <f>nFMEA!A47</f>
+        <f>nFMEA!A18</f>
         <v>UN-010</v>
       </c>
       <c r="B18" s="5" t="str">
-        <f>nFMEA!B47</f>
+        <f>nFMEA!B18</f>
         <v>As a user, I want to transfer the designator data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -7529,11 +7554,11 @@
     </row>
     <row r="19" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="str">
-        <f>nFMEA!A48</f>
+        <f>nFMEA!A19</f>
         <v>UN-011</v>
       </c>
       <c r="B19" s="5" t="str">
-        <f>nFMEA!B48</f>
+        <f>nFMEA!B19</f>
         <v>As a user, I want to transfer the component data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -7551,11 +7576,11 @@
     </row>
     <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="str">
-        <f>nFMEA!A49</f>
+        <f>nFMEA!A20</f>
         <v>UN-011</v>
       </c>
       <c r="B20" s="5" t="str">
-        <f>nFMEA!B49</f>
+        <f>nFMEA!B20</f>
         <v>As a user, I want to transfer the component data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -7573,11 +7598,11 @@
     </row>
     <row r="21" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="str">
-        <f>nFMEA!A50</f>
+        <f>nFMEA!A21</f>
         <v>UN-012</v>
       </c>
       <c r="B21" s="5" t="str">
-        <f>nFMEA!B50</f>
+        <f>nFMEA!B21</f>
         <v>As a user, I want to transfer the description data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -7595,11 +7620,11 @@
     </row>
     <row r="22" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="str">
-        <f>nFMEA!A51</f>
+        <f>nFMEA!A22</f>
         <v>UN-012</v>
       </c>
       <c r="B22" s="5" t="str">
-        <f>nFMEA!B51</f>
+        <f>nFMEA!B22</f>
         <v>As a user, I want to transfer the description data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -7617,11 +7642,11 @@
     </row>
     <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="str">
-        <f>nFMEA!A52</f>
+        <f>nFMEA!A23</f>
         <v>UN-013</v>
       </c>
       <c r="B23" s="5" t="str">
-        <f>nFMEA!B52</f>
+        <f>nFMEA!B23</f>
         <v>As a user, I want to transfer the manufacturer data for each item from the CBOM excel file to the cost walk template</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -7639,11 +7664,11 @@
     </row>
     <row r="24" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="str">
-        <f>nFMEA!A53</f>
+        <f>nFMEA!A24</f>
         <v>UN-013</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>nFMEA!B53</f>
+        <f>nFMEA!B24</f>
         <v>As a user, I want to transfer the manufacturer data for each item from the CBOM excel file to the cost walk template</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -7661,11 +7686,11 @@
     </row>
     <row r="25" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="str">
-        <f>nFMEA!A54</f>
+        <f>nFMEA!A25</f>
         <v>UN-014</v>
       </c>
       <c r="B25" s="5" t="str">
-        <f>nFMEA!B54</f>
+        <f>nFMEA!B25</f>
         <v>As a user, I want to transfer the part number data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -7683,11 +7708,11 @@
     </row>
     <row r="26" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="str">
-        <f>nFMEA!A55</f>
+        <f>nFMEA!A26</f>
         <v>UN-014</v>
       </c>
       <c r="B26" s="5" t="str">
-        <f>nFMEA!B55</f>
+        <f>nFMEA!B26</f>
         <v>As a user, I want to transfer the part number data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -7705,11 +7730,11 @@
     </row>
     <row r="27" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="str">
-        <f>nFMEA!A56</f>
+        <f>nFMEA!A27</f>
         <v>UN-015</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>nFMEA!B56</f>
+        <f>nFMEA!B27</f>
         <v>As a user, I want to transfer the quantity data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -7727,11 +7752,11 @@
     </row>
     <row r="28" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="str">
-        <f>nFMEA!A57</f>
+        <f>nFMEA!A28</f>
         <v>UN-015</v>
       </c>
       <c r="B28" s="5" t="str">
-        <f>nFMEA!B57</f>
+        <f>nFMEA!B28</f>
         <v>As a user, I want to transfer the quantity data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -7749,11 +7774,11 @@
     </row>
     <row r="29" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="str">
-        <f>nFMEA!A58</f>
+        <f>nFMEA!A29</f>
         <v>UN-016</v>
       </c>
       <c r="B29" s="5" t="str">
-        <f>nFMEA!B58</f>
+        <f>nFMEA!B29</f>
         <v>As a user, I want to transfer the unit price data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -7771,11 +7796,11 @@
     </row>
     <row r="30" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="str">
-        <f>nFMEA!A59</f>
+        <f>nFMEA!A30</f>
         <v>UN-016</v>
       </c>
       <c r="B30" s="5" t="str">
-        <f>nFMEA!B59</f>
+        <f>nFMEA!B30</f>
         <v>As a user, I want to transfer the unit price data for each item from the CBOM file to the cost walk template</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -7793,11 +7818,11 @@
     </row>
     <row r="31" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="str">
-        <f>nFMEA!A60</f>
+        <f>nFMEA!A31</f>
         <v>UN-017</v>
       </c>
       <c r="B31" s="5" t="str">
-        <f>nFMEA!B60</f>
+        <f>nFMEA!B31</f>
         <v>As a user, I want to remove items with zero quantity from the cost walk analysis</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -7815,11 +7840,11 @@
     </row>
     <row r="32" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="str">
-        <f>nFMEA!A61</f>
+        <f>nFMEA!A32</f>
         <v>UN-018</v>
       </c>
       <c r="B32" s="5" t="str">
-        <f>nFMEA!B61</f>
+        <f>nFMEA!B32</f>
         <v>As a user, I want to separate each item to a separate row on the cost walk template</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -7837,11 +7862,11 @@
     </row>
     <row r="33" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="str">
-        <f>nFMEA!A62</f>
+        <f>nFMEA!A33</f>
         <v>UN-019</v>
       </c>
       <c r="B33" s="5" t="str">
-        <f>nFMEA!B62</f>
+        <f>nFMEA!B33</f>
         <v>As a user, I want to add the name of the board to each item on the cost walk template</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -7859,11 +7884,11 @@
     </row>
     <row r="34" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="str">
-        <f>nFMEA!A63</f>
+        <f>nFMEA!A34</f>
         <v>UN-020</v>
       </c>
       <c r="B34" s="5" t="str">
-        <f>nFMEA!B63</f>
+        <f>nFMEA!B34</f>
         <v>As a user, I want to add the feature name to each item on the cost walk template</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -7881,11 +7906,11 @@
     </row>
     <row r="35" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="str">
-        <f>nFMEA!A64</f>
+        <f>nFMEA!A35</f>
         <v>UN-030</v>
       </c>
       <c r="B35" s="5" t="str">
-        <f>nFMEA!B64</f>
+        <f>nFMEA!B35</f>
         <v>As a user, I want the file name of the output generated by the application to contain information to help identify the type of data contained in the file.</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -8037,12 +8062,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE665222-67F2-4612-AE0E-AB00FDB00E4B}">
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P2" sqref="P2"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8126,16 +8151,16 @@
         <v>318</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F2" s="3">
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2" s="3">
         <v>10</v>
@@ -8147,11 +8172,11 @@
         <f>F2*H2*K2</f>
         <v>1000</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" s="5" t="str">
         <f>Module!C2</f>
         <v>MR-001</v>
       </c>
-      <c r="N2" s="3" t="str">
+      <c r="N2" s="5" t="str">
         <f>Module!E2</f>
         <v>Given data from the excel CBOM file has be successfully read by the application, the module shall store the data in the sheet identified by the string "PCBA_Quote" as the quote summary data</v>
       </c>
@@ -8176,16 +8201,16 @@
         <v>319</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H3" s="3">
         <v>10</v>
@@ -8197,11 +8222,11 @@
         <f>F3*H3*K3</f>
         <v>1000</v>
       </c>
-      <c r="M3" s="3" t="str">
+      <c r="M3" s="5" t="str">
         <f>Module!C3</f>
         <v>MR-002</v>
       </c>
-      <c r="N3" s="3" t="str">
+      <c r="N3" s="5" t="str">
         <f>Module!E3</f>
         <v>Given data from the excel CBOM file has be successfully read by the application, the module shall store the data in the sheet(s) ending with the "PCBA" as the PCBA CBOM data</v>
       </c>
@@ -8213,7 +8238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="str">
         <f>Application!C3</f>
         <v>AR-002</v>
@@ -8226,27 +8251,27 @@
         <v>320</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>679</v>
-      </c>
       <c r="F4" s="3">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
       </c>
       <c r="I4" s="5" t="str">
-        <f>Application!C4</f>
-        <v>AR-003</v>
+        <f>Application!C5</f>
+        <v>AR-004</v>
       </c>
       <c r="J4" s="5" t="str">
-        <f>Application!E4</f>
-        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
+        <f>Application!E5</f>
+        <v>The application shall include the model number in the data generated to populate the cost walk template</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
@@ -8255,644 +8280,1836 @@
         <f>F4*H4*K4</f>
         <v>100</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>Application!C7</f>
+        <v>AR-006</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>Application!E7</f>
+        <v>The application shall include the build stage in the data generated to populate the cost walk template</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L68" si="0">F5*H5*K5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f>Application!C9</f>
+        <v>AR-008</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>Application!E9</f>
+        <v>The application shall include the exchange rate in the data generated to populate the cost walk template</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="69" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>Application!C11</f>
+        <v>AR-010</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>Application!E11</f>
+        <v>The application shall include a list of board names in the data file generated to populate the cost walk template</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f>Application!C13</f>
+        <v>AR-012</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>Application!E13</f>
+        <v>The application shall include the material cost of each board in the output data file used to populate the cost walk template.</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>Application!C15</f>
+        <v>AR-014</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>Application!E15</f>
+        <v>The application shall include the overhead cost of each board in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>Application!C18</f>
+        <v>AR-017</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f>Application!E18</f>
+        <v>The application shall include the designator name of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>Application!C20</f>
+        <v>AR-019</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>Application!E20</f>
+        <v>The application shall include the component type of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f>Application!C22</f>
+        <v>AR-021</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f>Application!E22</f>
+        <v>The application shall include the description of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f>Application!C24</f>
+        <v>AR-023</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f>Application!E24</f>
+        <v>The application shall include the manufacturer of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f>Application!C26</f>
+        <v>AR-025</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f>Application!E26</f>
+        <v>The application shall include the part number of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f>Application!C28</f>
+        <v>AR-027</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f>Application!E28</f>
+        <v>The application shall include the quantity of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f>Application!C30</f>
+        <v>AR-029</v>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f>Application!E30</f>
+        <v>The application shall include the unit price of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f>Application!C33</f>
+        <v>AR-032</v>
+      </c>
+      <c r="J17" s="5" t="str">
+        <f>Application!E33</f>
+        <v>The application shall include the board name of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="str">
+        <f>Application!C3</f>
+        <v>AR-002</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f>Application!E3</f>
+        <v xml:space="preserve">The application shall generate an excel file with CBOM data for transfer to the cost walk template </v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f>Application!C34</f>
+        <v>AR-033</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f>Application!E34</f>
+        <v>The application shall include an empty value for feature name of each component in the data file generated to populate the cost walk template.</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="str">
+        <f>Application!C4</f>
+        <v>AR-003</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f>Application!E4</f>
+        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="str">
+        <f>Module!C4</f>
+        <v>MR-003</v>
+      </c>
+      <c r="N19" s="5" t="str">
+        <f>Module!E4</f>
+        <v>The module shall limit the model number to the format 'XYZ'. Where: X is 2 to 3 alphabits, Y is 3 to 5 numbers and Z is 0 to 3 alphabits</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <f>F19*H19*O19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="str">
+        <f>Application!C4</f>
+        <v>AR-003</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>Application!E4</f>
+        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M20" s="5" t="str">
+        <f>Module!C5</f>
+        <v>MR-004</v>
+      </c>
+      <c r="N20" s="5" t="str">
+        <f>Module!E5</f>
+        <v>The module shall prompt the user to manually verify the model number.</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <f>F20*H20*O20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="str">
+        <f>Application!C4</f>
+        <v>AR-003</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>Application!E4</f>
+        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f>Module!C6</f>
+        <v>MR-005</v>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f>Module!E6</f>
+        <v>When prompted to confirm the model number, the module shall allow the user to manually overwrite the model number</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <f>F21*H21*O21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="str">
+        <f>Application!C4</f>
+        <v>AR-003</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>Application!E4</f>
+        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f>Module!C7</f>
+        <v>MR-006</v>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>Module!E7</f>
+        <v>When the module does not identify a valid model number, it shall default to M00</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <f>F22*H22*O22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="str">
+        <f>Application!C5</f>
+        <v>AR-004</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>Application!E5</f>
+        <v>The application shall include the model number in the data generated to populate the cost walk template</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="str">
-        <f>Application!C4</f>
-        <v>AR-003</v>
-      </c>
-      <c r="B34" s="5" t="str">
-        <f>Application!E4</f>
-        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="str">
-        <f>Application!C5</f>
-        <v>AR-004</v>
-      </c>
-      <c r="B35" s="5" t="str">
-        <f>Application!E5</f>
-        <v>The application shall include the model number in the data generated to populate the cost walk template</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="str">
+    <row r="24" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="str">
         <f>Application!C6</f>
         <v>AR-005</v>
       </c>
-      <c r="B36" s="5" t="str">
+      <c r="B24" s="5" t="str">
         <f>Application!E6</f>
         <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="str">
+      <c r="C24" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>10</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f>Module!C8</f>
+        <v>MR-007</v>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>Module!E8</f>
+        <v xml:space="preserve">The module shall limit the build number to the format 'XY.Z'. Where X is 1 to 3 alphabits, Y is 0 to 3 numbers, optional decimal point, and Z is 0 to 3 numbers. </v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <f>F24*H24*O24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="str">
+        <f>Application!C6</f>
+        <v>AR-005</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>Application!E6</f>
+        <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" ref="L25:L26" si="1">F25*H25*K25</f>
+        <v>50</v>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f>Module!C9</f>
+        <v>MR-008</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>Module!E9</f>
+        <v>The module shall prompt the user to manually verify the build stage.</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <f>F25*H25*O25</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="str">
+        <f>Application!C6</f>
+        <v>AR-005</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>Application!E6</f>
+        <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M26" s="5" t="str">
+        <f>Module!C10</f>
+        <v>MR-009</v>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>Module!E10</f>
+        <v>When prompted to confirm the build stage, the module shall allow the user to manually overwrite the build stage</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <f>F26*H26*O26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="str">
+        <f>Application!C6</f>
+        <v>AR-005</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>Application!E6</f>
+        <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" ref="L27" si="2">F27*H27*K27</f>
+        <v>50</v>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f>Module!C11</f>
+        <v>MR-010</v>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>Module!E11</f>
+        <v>When the module does not identify a valid build stage, it shall default to B00</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <f>F27*H27*O27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="str">
         <f>Application!C7</f>
         <v>AR-006</v>
       </c>
-      <c r="B37" s="5" t="str">
+      <c r="B28" s="5" t="str">
         <f>Application!E7</f>
         <v>The application shall include the build stage in the data generated to populate the cost walk template</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="str">
+      <c r="C28" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="str">
         <f>Application!C8</f>
         <v>AR-007</v>
       </c>
-      <c r="B38" s="5" t="str">
+      <c r="B29" s="5" t="str">
         <f>Application!E8</f>
         <v>Given quote data from the CBOM data file is available, the application shall set the 'exchange rate' for the cost walk to the value identified by the label 'Exchange Rate'</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="str">
+      <c r="C29" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="str">
         <f>Application!C9</f>
         <v>AR-008</v>
       </c>
-      <c r="B39" s="5" t="str">
+      <c r="B30" s="5" t="str">
         <f>Application!E9</f>
         <v>The application shall include the exchange rate in the data generated to populate the cost walk template</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="str">
+      <c r="C30" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="str">
         <f>Application!C10</f>
         <v>AR-009</v>
       </c>
-      <c r="B40" s="5" t="str">
+      <c r="B31" s="5" t="str">
         <f>Application!E10</f>
         <v>Given overall quote data from the CBOM data file is available, the application shall generate a list of board using the value in the cells identified by the label 'Description'</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="str">
+      <c r="C31" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="str">
         <f>Application!C11</f>
         <v>AR-010</v>
       </c>
-      <c r="B41" s="5" t="str">
+      <c r="B32" s="5" t="str">
         <f>Application!E11</f>
         <v>The application shall include a list of board names in the data file generated to populate the cost walk template</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="str">
+      <c r="C32" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="str">
         <f>Application!C12</f>
         <v>AR-011</v>
       </c>
-      <c r="B42" s="5" t="str">
+      <c r="B33" s="5" t="str">
         <f>Application!E12</f>
         <v>Given the data for overall quote is available, the application shall generate a list of board material cost using the value in the cells identified by the label 'BOM cost'</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="str">
+      <c r="C33" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="str">
         <f>Application!C13</f>
         <v>AR-012</v>
       </c>
-      <c r="B43" s="5" t="str">
+      <c r="B34" s="5" t="str">
         <f>Application!E13</f>
         <v>The application shall include the material cost of each board in the output data file used to populate the cost walk template.</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="str">
+      <c r="C34" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="str">
         <f>Application!C14</f>
         <v>AR-013</v>
       </c>
-      <c r="B44" s="5" t="str">
+      <c r="B35" s="5" t="str">
         <f>Application!E14</f>
         <v>Given the data for overall quote is available, the application shall generate a list of board overhead cost using the value in the cells identified by the label 'OHP'</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="str">
+      <c r="C35" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="str">
         <f>Application!C15</f>
         <v>AR-014</v>
       </c>
-      <c r="B45" s="5" t="str">
+      <c r="B36" s="5" t="str">
         <f>Application!E15</f>
         <v>The application shall include the overhead cost of each board in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="str">
+      <c r="C36" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="str">
         <f>Application!C16</f>
         <v>AR-015</v>
       </c>
-      <c r="B46" s="5" t="str">
+      <c r="B37" s="5" t="str">
         <f>Application!E16</f>
         <v xml:space="preserve">Given the build stage and cost data for each board is avaiable, the application shall use the cost data for the selected build to generate the cost walk </v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="str">
+      <c r="C37" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="str">
         <f>Application!C17</f>
         <v>AR-016</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B38" s="5" t="str">
         <f>Application!E17</f>
         <v>Given the cost data of a board is available, the application shall use designator data as identified by the header label 'Designator'</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="str">
+      <c r="C38" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="str">
         <f>Application!C18</f>
         <v>AR-017</v>
       </c>
-      <c r="B48" s="5" t="str">
+      <c r="B39" s="5" t="str">
         <f>Application!E18</f>
         <v>The application shall include the designator name of each component in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="str">
+      <c r="C39" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="str">
         <f>Application!C19</f>
         <v>AR-018</v>
       </c>
-      <c r="B49" s="5" t="str">
+      <c r="B40" s="5" t="str">
         <f>Application!E19</f>
         <v>Given the cost data of a board is available, the application shall use designator data as identified by the header label 'Component'</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="str">
+      <c r="C40" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="str">
         <f>Application!C20</f>
         <v>AR-019</v>
       </c>
-      <c r="B50" s="5" t="str">
+      <c r="B41" s="5" t="str">
         <f>Application!E20</f>
         <v>The application shall include the component type of each component in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="str">
+      <c r="C41" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="str">
         <f>Application!C21</f>
         <v>AR-020</v>
       </c>
-      <c r="B51" s="5" t="str">
+      <c r="B42" s="5" t="str">
         <f>Application!E21</f>
         <v xml:space="preserve">When identifying the description of an item on the CBOM, the application shall use the data identified by the header label 'Description' </v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="str">
+      <c r="C42" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="str">
         <f>Application!C22</f>
         <v>AR-021</v>
       </c>
-      <c r="B52" s="5" t="str">
+      <c r="B43" s="5" t="str">
         <f>Application!E22</f>
         <v>The application shall include the description of each component in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="str">
+      <c r="C43" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="str">
         <f>Application!C23</f>
         <v>AR-022</v>
       </c>
-      <c r="B53" s="5" t="str">
+      <c r="B44" s="5" t="str">
         <f>Application!E23</f>
         <v xml:space="preserve">When identifying the manufacturer of an item on the CBOM, the application shall use the data identified by the header label 'Manufacturer' </v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="str">
+      <c r="C44" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="str">
         <f>Application!C24</f>
         <v>AR-023</v>
       </c>
-      <c r="B54" s="5" t="str">
+      <c r="B45" s="5" t="str">
         <f>Application!E24</f>
         <v>The application shall include the manufacturer of each component in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="str">
+      <c r="C45" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="str">
         <f>Application!C25</f>
         <v>AR-024</v>
       </c>
-      <c r="B55" s="5" t="str">
+      <c r="B46" s="5" t="str">
         <f>Application!E25</f>
         <v xml:space="preserve">When identifying the part number of an item on the CBOM, the application shall use the data identified by the header label 'Part Number' </v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="str">
+      <c r="C46" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="str">
         <f>Application!C26</f>
         <v>AR-025</v>
       </c>
-      <c r="B56" s="5" t="str">
+      <c r="B47" s="5" t="str">
         <f>Application!E26</f>
         <v>The application shall include the part number of each component in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="str">
+      <c r="C47" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="str">
         <f>Application!C27</f>
         <v>AR-026</v>
       </c>
-      <c r="B57" s="5" t="str">
+      <c r="B48" s="5" t="str">
         <f>Application!E27</f>
         <v xml:space="preserve">When identifying the quantity of an item on the CBOM, the application shall use the data identified by the header label 'Quantity' </v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="str">
+      <c r="C48" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="str">
         <f>Application!C28</f>
         <v>AR-027</v>
       </c>
-      <c r="B58" s="5" t="str">
+      <c r="B49" s="5" t="str">
         <f>Application!E28</f>
         <v>The application shall include the quantity of each component in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="str">
+      <c r="C49" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="str">
         <f>Application!C29</f>
         <v>AR-028</v>
       </c>
-      <c r="B59" s="5" t="str">
+      <c r="B50" s="5" t="str">
         <f>Application!E29</f>
         <v xml:space="preserve">When identifying the unit price of an item on the CBOM, the application shall use the data identified by the header label 'U/P' </v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="str">
+      <c r="C50" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="str">
         <f>Application!C30</f>
         <v>AR-029</v>
       </c>
-      <c r="B60" s="5" t="str">
+      <c r="B51" s="5" t="str">
         <f>Application!E30</f>
         <v>The application shall include the unit price of each component in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="str">
+      <c r="C51" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="str">
         <f>Application!C31</f>
         <v>AR-030</v>
       </c>
-      <c r="B61" s="5" t="str">
+      <c r="B52" s="5" t="str">
         <f>Application!E31</f>
         <v>Given the bill of material cost data for a board is available, the application shall shall remove all components with zero quantity</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="str">
+      <c r="C52" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="str">
         <f>Application!C32</f>
         <v>AR-031</v>
       </c>
-      <c r="B62" s="5" t="str">
+      <c r="B53" s="5" t="str">
         <f>Application!E32</f>
         <v>Given the bill of material cost data for a board is available, the application shall separate each designator to an individual line</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="str">
+      <c r="C53" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="str">
         <f>Application!C33</f>
         <v>AR-032</v>
       </c>
-      <c r="B63" s="5" t="str">
+      <c r="B54" s="5" t="str">
         <f>Application!E33</f>
         <v>The application shall include the board name of each component in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="str">
+      <c r="C54" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="str">
         <f>Application!C34</f>
         <v>AR-033</v>
       </c>
-      <c r="B64" s="5" t="str">
+      <c r="B55" s="5" t="str">
         <f>Application!E34</f>
         <v>The application shall include an empty value for feature name of each component in the data file generated to populate the cost walk template.</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="str">
+      <c r="C55" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="str">
         <f>Application!C35</f>
         <v>AR-034</v>
       </c>
-      <c r="B65" s="5" t="str">
+      <c r="B56" s="5" t="str">
         <f>Application!E35</f>
         <v>The file name format for output file generating for CBOM data transfer to the cost walk template shall be "PCBA_CW_&lt;Date&gt;_&lt;Time&gt;_&lt;SKU&gt;_&lt;Build&gt;_&lt;PCBA Name&gt;". Where &lt;Date&gt; is in the format YYMMDD, &lt;Time&gt; is in the 24hr format HHMMSS, &lt;SKU&gt; is the company SKU, &lt;Build&gt; is the CBOM build stage, and &lt;PCBA Name&gt; is the circuit board name</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="str">
+      <c r="C56" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="str">
         <f>Application!C36</f>
         <v>AR-035</v>
       </c>
-      <c r="B66" s="5" t="str">
+      <c r="B57" s="5" t="str">
         <f>Application!E36</f>
         <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="C57" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="str">
+      <c r="L57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="str">
         <f>Application!C36</f>
         <v>AR-035</v>
       </c>
-      <c r="B67" s="5" t="str">
+      <c r="B58" s="5" t="str">
         <f>Application!E36</f>
         <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
       </c>
+      <c r="C58" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f>Application!C38</f>
+        <v>AR-036</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="str">
+        <f>A57</f>
+        <v>AR-035</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <f>B57</f>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="str">
+        <f>A59</f>
+        <v>AR-035</v>
+      </c>
+      <c r="B60" s="5" t="str">
+        <f t="shared" ref="B60:E62" si="3">B59</f>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>The user will not be able to identify the file by name.</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="str">
+        <f>A60</f>
+        <v>AR-035</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>The user will not be able to identify the file by name.</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="str">
+        <f>A61</f>
+        <v>AR-035</v>
+      </c>
+      <c r="B62" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>The user will not be able to identify the file by name.</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="str">
+        <f>Application!C37</f>
+        <v>AR-036</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <f>Application!E37</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="str">
+        <f>Application!C37</f>
+        <v>AR-036</v>
+      </c>
+      <c r="B64" s="5" t="str">
+        <f>Application!E37</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="str">
+        <f>Application!C37</f>
+        <v>AR-036</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <f>Application!E37</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="str">
+        <f>Application!C37</f>
+        <v>AR-036</v>
+      </c>
+      <c r="B66" s="5" t="str">
+        <f>Application!E37</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="str">
+        <f>Application!C37</f>
+        <v>AR-036</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <f>Application!E37</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
+      </c>
       <c r="C67" s="3" t="s">
-        <v>652</v>
+        <v>700</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>26</v>
@@ -8901,24 +10118,24 @@
         <v>43</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f>Application!C38</f>
+        <v>44</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="str">
+        <f>Application!C37</f>
         <v>AR-036</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="str">
-        <f>A66</f>
-        <v>AR-035</v>
-      </c>
       <c r="B68" s="5" t="str">
-        <f>B66</f>
-        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
+        <f>Application!E37</f>
+        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>26</v>
@@ -8926,214 +10143,16 @@
       <c r="E68" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="4"/>
       <c r="G68" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="str">
-        <f>A68</f>
-        <v>AR-035</v>
-      </c>
-      <c r="B69" s="5" t="str">
-        <f t="shared" ref="B69:E71" si="0">B68</f>
-        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="3" t="str">
+        <v>45</v>
+      </c>
+      <c r="L68" s="3">
         <f t="shared" si="0"/>
-        <v>The user will not be able to identify the file by name.</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="str">
-        <f>A69</f>
-        <v>AR-035</v>
-      </c>
-      <c r="B70" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>The user will not be able to identify the file by name.</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="str">
-        <f>A70</f>
-        <v>AR-035</v>
-      </c>
-      <c r="B71" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>When generating the CBOM file for upload to the database, the application shall use the file name format "PCBA_CBOM_&lt;TimeStamp&gt;_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;". Where &lt;TimeStamp&gt; is the date CBOM was created, &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, and &lt;PCBA Name&gt; is the circuit board name</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>The user will not be able to identify the file by name.</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="str">
-        <f>Application!C37</f>
-        <v>AR-036</v>
-      </c>
-      <c r="B72" s="5" t="str">
-        <f>Application!E37</f>
-        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="str">
-        <f>Application!C37</f>
-        <v>AR-036</v>
-      </c>
-      <c r="B73" s="5" t="str">
-        <f>Application!E37</f>
-        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="str">
-        <f>Application!C37</f>
-        <v>AR-036</v>
-      </c>
-      <c r="B74" s="5" t="str">
-        <f>Application!E37</f>
-        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="str">
-        <f>Application!C37</f>
-        <v>AR-036</v>
-      </c>
-      <c r="B75" s="5" t="str">
-        <f>Application!E37</f>
-        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="str">
-        <f>Application!C37</f>
-        <v>AR-036</v>
-      </c>
-      <c r="B76" s="5" t="str">
-        <f>Application!E37</f>
-        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="str">
-        <f>Application!C37</f>
-        <v>AR-036</v>
-      </c>
-      <c r="B77" s="5" t="str">
-        <f>Application!E37</f>
-        <v>When generating the EBOM file for upload to the database, the application shall use the file name format "PCBA_BOM_&lt;SKU&gt;-&lt;Factory&gt;-&lt;PCBA Name&gt;-&lt;P/N&gt;-&lt;Rev&gt;". Where &lt;SKU&gt; is the company SKU, &lt;Factory&gt; is the final product assembly factory, &lt;PCBA Name&gt; is the circuit board name, &lt;P/N&gt; is the company part number, and &lt;Rev&gt; is the company part number revision</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D84" s="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D75" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{DE665222-67F2-4612-AE0E-AB00FDB00E4B}"/>
@@ -9144,11 +10163,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351B94FD-9ADC-4547-B94F-31BC9DDD0CC0}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9191,16 +10210,16 @@
         <v>The appication shall read CBOM data supplied by the PCBA manufacturer from an excel format file</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
@@ -9213,20 +10232,196 @@
         <v>The appication shall read CBOM data supplied by the PCBA manufacturer from an excel format file</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>674</v>
+    </row>
+    <row r="4" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="str">
+        <f>aFMEA!A19</f>
+        <v>AR-003</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f>aFMEA!B19</f>
+        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="str">
+        <f>aFMEA!A19</f>
+        <v>AR-003</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f>aFMEA!B19</f>
+        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="str">
+        <f>aFMEA!A19</f>
+        <v>AR-003</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f>aFMEA!B19</f>
+        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="str">
+        <f>aFMEA!A19</f>
+        <v>AR-003</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>aFMEA!B20</f>
+        <v>Given board cost data from the data file is available, the application shall set the model number for the cost walk to the value identified by the label 'Model No:'</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="str">
+        <f>aFMEA!A24</f>
+        <v>AR-005</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>aFMEA!B24</f>
+        <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="str">
+        <f>aFMEA!A24</f>
+        <v>AR-005</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>aFMEA!B24</f>
+        <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="str">
+        <f>aFMEA!A24</f>
+        <v>AR-005</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>aFMEA!B24</f>
+        <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="str">
+        <f>aFMEA!A24</f>
+        <v>AR-005</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>aFMEA!B24</f>
+        <v>Given overall quote data from the CBOM data file is available, the application shall set the 'build stage' for the cost walk to the value identified by the label 'Product stage'</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F33" xr:uid="{EC926B3F-45E1-4A07-86DE-FEDC18CC146B}"/>
+  <autoFilter ref="A1:F34" xr:uid="{EC926B3F-45E1-4A07-86DE-FEDC18CC146B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9237,10 +10432,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDF262-5FE7-41AF-946E-552DDADCE373}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -9318,7 +10513,7 @@
     </row>
     <row r="4" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
       <c r="G4" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.3">
@@ -9368,7 +10563,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>aFMEA!A66</f>
+        <f>aFMEA!A57</f>
         <v>AR-035</v>
       </c>
     </row>
@@ -9395,7 +10590,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -9499,7 +10694,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -9522,7 +10717,7 @@
       </c>
       <c r="J8" s="8">
         <f>COUNTIFS(aFMEA!F:F,Legand!G8,aFMEA!H:H,Legand!J11)</f>
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -9534,7 +10729,7 @@
       </c>
       <c r="H9" s="10">
         <f>COUNTIFS(aFMEA!F:F,Legand!G9,aFMEA!H:H,Legand!H11)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I9" s="10">
         <f>COUNTIFS(aFMEA!F:F,Legand!G9,aFMEA!H:H,Legand!I11)</f>
@@ -9593,7 +10788,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
